--- a/results_compilation.xlsx
+++ b/results_compilation.xlsx
@@ -2,20 +2,22 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ae12d2469d1e1992/Documents/MORPH_SEGMENT2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{D2BD0764-5A21-4851-BD1F-53FF774EF26B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8A78620-A207-4A27-87AD-D083353D2384}"/>
+  <xr:revisionPtr revIDLastSave="237" documentId="8_{D2BD0764-5A21-4851-BD1F-53FF774EF26B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9FFE168-A591-4E73-9062-962EC3AC15D6}"/>
   <bookViews>
-    <workbookView xWindow="9375" yWindow="3360" windowWidth="18420" windowHeight="10380" xr2:uid="{B90F57C1-6634-4844-9385-30D5D93C881D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{B90F57C1-6634-4844-9385-30D5D93C881D}"/>
   </bookViews>
   <sheets>
-    <sheet name="g2p large transformer" sheetId="1" r:id="rId1"/>
-    <sheet name="g2p large hard" sheetId="2" r:id="rId2"/>
-    <sheet name="g2p transformer dropout0.3" sheetId="3" r:id="rId3"/>
+    <sheet name="Hard Small Dropout" sheetId="6" r:id="rId1"/>
+    <sheet name="Hard Large Dropout" sheetId="4" r:id="rId2"/>
+    <sheet name="Hard Large LR" sheetId="7" r:id="rId3"/>
+    <sheet name="Transformer Dropout" sheetId="5" r:id="rId4"/>
+    <sheet name="Transformer LR" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="31">
   <si>
     <t>Language</t>
   </si>
@@ -64,17 +66,89 @@
     <t>Xhosa</t>
   </si>
   <si>
-    <t>epochs</t>
+    <t>hard_0.4</t>
+  </si>
+  <si>
+    <t>hard_0.5</t>
+  </si>
+  <si>
+    <t>hard_0.6</t>
+  </si>
+  <si>
+    <t>hard_0.7</t>
+  </si>
+  <si>
+    <t>soft_0.3</t>
+  </si>
+  <si>
+    <t>soft_0.4</t>
+  </si>
+  <si>
+    <t>soft_0.5</t>
+  </si>
+  <si>
+    <t>soft_0.6</t>
+  </si>
+  <si>
+    <t>soft_0.7</t>
+  </si>
+  <si>
+    <t>hard_0.3</t>
+  </si>
+  <si>
+    <t>hard_small_0.3</t>
+  </si>
+  <si>
+    <t>hard_small_0.4</t>
+  </si>
+  <si>
+    <t>hard_small_0.5</t>
+  </si>
+  <si>
+    <t>soft_0.2</t>
+  </si>
+  <si>
+    <t>hard_lr_0.0001</t>
+  </si>
+  <si>
+    <t>hard_1e-3</t>
+  </si>
+  <si>
+    <t>hard_lr_1e-05</t>
+  </si>
+  <si>
+    <t>soft_lr_1e-4</t>
+  </si>
+  <si>
+    <t>soft_lr_1e-05</t>
+  </si>
+  <si>
+    <t>soft_lr_1e-3</t>
+  </si>
+  <si>
+    <t>soft_lr_0.005</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -100,13 +174,2305 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="229">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -415,98 +2781,317 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB067AC3-7129-42B2-AE9F-85A93F65A5C8}">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F58562B-27CC-4AED-8160-A51C418AC6F7}">
+  <dimension ref="F1:W11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>8</v>
+      <c r="K2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>56.841000000000001</v>
-      </c>
-      <c r="C2">
-        <v>64.498000000000005</v>
-      </c>
-      <c r="D2">
-        <v>60.427999999999997</v>
-      </c>
-      <c r="E2">
-        <v>34</v>
+      <c r="G3">
+        <v>69.981999999999999</v>
+      </c>
+      <c r="H3">
+        <v>73.887</v>
+      </c>
+      <c r="I3">
+        <v>71.882000000000005</v>
+      </c>
+      <c r="K3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3">
+        <v>69.679000000000002</v>
+      </c>
+      <c r="M3">
+        <v>73.540000000000006</v>
+      </c>
+      <c r="N3">
+        <v>71.558000000000007</v>
+      </c>
+      <c r="P3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q3">
+        <v>70.213999999999999</v>
+      </c>
+      <c r="R3">
+        <v>74.356999999999999</v>
+      </c>
+      <c r="S3">
+        <v>72.225999999999999</v>
+      </c>
+      <c r="U3">
+        <f>MAX(G3,L3,Q3)</f>
+        <v>70.213999999999999</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ref="V3:W3" si="0">MAX(H3,M3,R3)</f>
+        <v>74.356999999999999</v>
+      </c>
+      <c r="W3">
+        <f t="shared" si="0"/>
+        <v>72.225999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>64.942999999999998</v>
-      </c>
-      <c r="C3">
-        <v>70.352000000000004</v>
-      </c>
-      <c r="D3">
-        <v>67.539000000000001</v>
-      </c>
-      <c r="E3">
-        <v>32</v>
+      <c r="G4">
+        <v>72.971000000000004</v>
+      </c>
+      <c r="H4">
+        <v>76.102000000000004</v>
+      </c>
+      <c r="I4">
+        <v>74.503</v>
+      </c>
+      <c r="K4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4">
+        <v>69.057000000000002</v>
+      </c>
+      <c r="M4">
+        <v>74.114999999999995</v>
+      </c>
+      <c r="N4">
+        <v>71.495999999999995</v>
+      </c>
+      <c r="P4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q4">
+        <v>71.058999999999997</v>
+      </c>
+      <c r="R4">
+        <v>75.234999999999999</v>
+      </c>
+      <c r="S4">
+        <v>73.087999999999994</v>
+      </c>
+      <c r="U4">
+        <f t="shared" ref="U4:U7" si="1">MAX(G4,L4,Q4)</f>
+        <v>72.971000000000004</v>
+      </c>
+      <c r="V4">
+        <f t="shared" ref="V4:V7" si="2">MAX(H4,M4,R4)</f>
+        <v>76.102000000000004</v>
+      </c>
+      <c r="W4">
+        <f t="shared" ref="W4:W7" si="3">MAX(I4,N4,S4)</f>
+        <v>74.503</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
-        <v>59.134999999999998</v>
-      </c>
-      <c r="C4">
-        <v>68.561000000000007</v>
-      </c>
-      <c r="D4">
-        <v>63.5</v>
-      </c>
-      <c r="E4">
-        <v>42</v>
+      <c r="G5">
+        <v>72.545000000000002</v>
+      </c>
+      <c r="H5">
+        <v>79.603999999999999</v>
+      </c>
+      <c r="I5">
+        <v>75.911000000000001</v>
+      </c>
+      <c r="K5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5">
+        <v>71.05</v>
+      </c>
+      <c r="M5">
+        <v>78.451999999999998</v>
+      </c>
+      <c r="N5">
+        <v>74.567999999999998</v>
+      </c>
+      <c r="P5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q5">
+        <v>72.241</v>
+      </c>
+      <c r="R5">
+        <v>79.603999999999999</v>
+      </c>
+      <c r="S5">
+        <v>75.744</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="1"/>
+        <v>72.545000000000002</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="2"/>
+        <v>79.603999999999999</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="3"/>
+        <v>75.911000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
-        <v>62.204999999999998</v>
-      </c>
-      <c r="C5">
-        <v>72.933999999999997</v>
-      </c>
-      <c r="D5">
-        <v>67.143000000000001</v>
-      </c>
-      <c r="E5">
-        <v>31</v>
+      <c r="G6">
+        <v>74.623000000000005</v>
+      </c>
+      <c r="H6">
+        <v>81.971000000000004</v>
+      </c>
+      <c r="I6">
+        <v>78.125</v>
+      </c>
+      <c r="K6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6">
+        <v>74.656000000000006</v>
+      </c>
+      <c r="M6">
+        <v>82.225999999999999</v>
+      </c>
+      <c r="N6">
+        <v>78.257999999999996</v>
+      </c>
+      <c r="P6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q6">
+        <v>74.09</v>
+      </c>
+      <c r="R6">
+        <v>82.028000000000006</v>
+      </c>
+      <c r="S6">
+        <v>77.856999999999999</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="1"/>
+        <v>74.656000000000006</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="2"/>
+        <v>82.225999999999999</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="3"/>
+        <v>78.257999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <f>AVERAGE(G3:G6)</f>
+        <v>72.530249999999995</v>
+      </c>
+      <c r="H7">
+        <f t="shared" ref="H7:S7" si="4">AVERAGE(H3:H6)</f>
+        <v>77.891000000000005</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="4"/>
+        <v>75.105249999999998</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="4"/>
+        <v>71.110500000000002</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="4"/>
+        <v>77.083249999999992</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="4"/>
+        <v>73.97</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="4"/>
+        <v>71.90100000000001</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="4"/>
+        <v>77.805999999999997</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="4"/>
+        <v>74.728749999999991</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="1"/>
+        <v>72.530249999999995</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="2"/>
+        <v>77.891000000000005</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="3"/>
+        <v>75.105249999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -515,186 +3100,1937 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF63C5D-8CD4-471A-BB17-9951F6E37FF2}">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0364A18-6E38-4EA2-885E-36316BFFBB0F}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:AB7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="P9" sqref="P9:S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" t="s">
+        <v>10</v>
+      </c>
+      <c r="U1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U2" t="s">
+        <v>0</v>
+      </c>
+      <c r="V2" t="s">
+        <v>1</v>
+      </c>
+      <c r="W2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X2" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>70.963999999999999</v>
-      </c>
-      <c r="C2">
-        <v>74.826999999999998</v>
-      </c>
-      <c r="D2">
-        <v>72.843999999999994</v>
+      <c r="B3">
+        <v>70.099000000000004</v>
+      </c>
+      <c r="C3">
+        <v>74.096999999999994</v>
+      </c>
+      <c r="D3">
+        <v>72.043000000000006</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>70.423000000000002</v>
+      </c>
+      <c r="H3">
+        <v>74.518000000000001</v>
+      </c>
+      <c r="I3">
+        <v>72.412999999999997</v>
+      </c>
+      <c r="K3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="1">
+        <v>70.888999999999996</v>
+      </c>
+      <c r="M3">
+        <v>74.974999999999994</v>
+      </c>
+      <c r="N3" s="1">
+        <v>72.875</v>
+      </c>
+      <c r="P3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>70.388000000000005</v>
+      </c>
+      <c r="R3" s="1">
+        <v>75.099000000000004</v>
+      </c>
+      <c r="S3" s="1">
+        <v>72.667000000000002</v>
+      </c>
+      <c r="U3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V3">
+        <v>69.944999999999993</v>
+      </c>
+      <c r="W3">
+        <v>74.504999999999995</v>
+      </c>
+      <c r="X3">
+        <v>72.153000000000006</v>
+      </c>
+      <c r="Z3">
+        <f>MAX(B3, G3,L3,Q3,V3)</f>
+        <v>70.888999999999996</v>
+      </c>
+      <c r="AA3">
+        <f t="shared" ref="AA3:AB3" si="0">MAX(C3, H3,M3,R3,W3)</f>
+        <v>75.099000000000004</v>
+      </c>
+      <c r="AB3">
+        <f t="shared" si="0"/>
+        <v>72.875</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>71.099000000000004</v>
-      </c>
-      <c r="C3">
-        <v>74.834000000000003</v>
-      </c>
-      <c r="D3">
-        <v>72.918000000000006</v>
+      <c r="B4">
+        <v>68.537999999999997</v>
+      </c>
+      <c r="C4">
+        <v>72.92</v>
+      </c>
+      <c r="D4">
+        <v>70.661000000000001</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>69.998000000000005</v>
+      </c>
+      <c r="H4">
+        <v>73.808000000000007</v>
+      </c>
+      <c r="I4">
+        <v>71.852999999999994</v>
+      </c>
+      <c r="K4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4">
+        <v>69.948999999999998</v>
+      </c>
+      <c r="M4">
+        <v>73.808000000000007</v>
+      </c>
+      <c r="N4">
+        <v>71.826999999999998</v>
+      </c>
+      <c r="P4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>71.421000000000006</v>
+      </c>
+      <c r="R4" s="1">
+        <v>75.256</v>
+      </c>
+      <c r="S4" s="1">
+        <v>73.289000000000001</v>
+      </c>
+      <c r="U4" t="s">
+        <v>5</v>
+      </c>
+      <c r="V4">
+        <v>70.748999999999995</v>
+      </c>
+      <c r="W4">
+        <v>74.367999999999995</v>
+      </c>
+      <c r="X4">
+        <v>72.513999999999996</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" ref="Z4:Z7" si="1">MAX(B4, G4,L4,Q4,V4)</f>
+        <v>71.421000000000006</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" ref="AA4:AA7" si="2">MAX(C4, H4,M4,R4,W4)</f>
+        <v>75.256</v>
+      </c>
+      <c r="AB4">
+        <f t="shared" ref="AB4:AB7" si="3">MAX(D4, I4,N4,S4,X4)</f>
+        <v>73.289000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
-        <v>72.238</v>
-      </c>
-      <c r="C4">
-        <v>79.733000000000004</v>
-      </c>
-      <c r="D4">
-        <v>75.801000000000002</v>
+      <c r="B5">
+        <v>71.840999999999994</v>
+      </c>
+      <c r="C5">
+        <v>79.055000000000007</v>
+      </c>
+      <c r="D5">
+        <v>75.275000000000006</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5">
+        <v>71.546999999999997</v>
+      </c>
+      <c r="H5">
+        <v>79.108999999999995</v>
+      </c>
+      <c r="I5">
+        <v>75.138000000000005</v>
+      </c>
+      <c r="K5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5">
+        <v>71.52</v>
+      </c>
+      <c r="M5">
+        <v>79.355999999999995</v>
+      </c>
+      <c r="N5">
+        <v>75.234999999999999</v>
+      </c>
+      <c r="P5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>71.652000000000001</v>
+      </c>
+      <c r="R5" s="1">
+        <v>79.248999999999995</v>
+      </c>
+      <c r="S5" s="1">
+        <v>75.259</v>
+      </c>
+      <c r="U5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V5">
+        <v>71.009</v>
+      </c>
+      <c r="W5">
+        <v>78.668000000000006</v>
+      </c>
+      <c r="X5">
+        <v>74.643000000000001</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="1"/>
+        <v>71.840999999999994</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="2"/>
+        <v>79.355999999999995</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" si="3"/>
+        <v>75.275000000000006</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
-        <v>73.858000000000004</v>
-      </c>
-      <c r="C5">
-        <v>81.896000000000001</v>
-      </c>
-      <c r="D5">
-        <v>77.67</v>
+      <c r="B6">
+        <v>74.501999999999995</v>
+      </c>
+      <c r="C6">
+        <v>81.641999999999996</v>
+      </c>
+      <c r="D6">
+        <v>77.909000000000006</v>
+      </c>
+      <c r="F6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6">
+        <v>73.412000000000006</v>
+      </c>
+      <c r="H6">
+        <v>80.191999999999993</v>
+      </c>
+      <c r="I6">
+        <v>76.652000000000001</v>
+      </c>
+      <c r="K6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6">
+        <v>72.884</v>
+      </c>
+      <c r="M6">
+        <v>80.013000000000005</v>
+      </c>
+      <c r="N6">
+        <v>76.281999999999996</v>
+      </c>
+      <c r="P6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>73.698999999999998</v>
+      </c>
+      <c r="R6" s="1">
+        <v>81.727000000000004</v>
+      </c>
+      <c r="S6" s="1">
+        <v>77.504999999999995</v>
+      </c>
+      <c r="U6" t="s">
+        <v>6</v>
+      </c>
+      <c r="V6">
+        <v>73.165000000000006</v>
+      </c>
+      <c r="W6">
+        <v>81.650999999999996</v>
+      </c>
+      <c r="X6">
+        <v>77.176000000000002</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="1"/>
+        <v>74.501999999999995</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="2"/>
+        <v>81.727000000000004</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" si="3"/>
+        <v>77.909000000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <f>AVERAGE(B3:B6)</f>
+        <v>71.245000000000005</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7:D7" si="4">AVERAGE(C3:C6)</f>
+        <v>76.9285</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="4"/>
+        <v>73.972000000000008</v>
+      </c>
+      <c r="G7">
+        <f>AVERAGE(G3:G6)</f>
+        <v>71.344999999999999</v>
+      </c>
+      <c r="H7">
+        <f t="shared" ref="H7:X7" si="5">AVERAGE(H3:H6)</f>
+        <v>76.906750000000002</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="5"/>
+        <v>74.013999999999996</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="5"/>
+        <v>71.310500000000005</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="5"/>
+        <v>77.038000000000011</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="5"/>
+        <v>74.054749999999999</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="5"/>
+        <v>71.790000000000006</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="5"/>
+        <v>77.832750000000004</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="5"/>
+        <v>74.680000000000007</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="5"/>
+        <v>71.216999999999999</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="5"/>
+        <v>77.298000000000002</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="5"/>
+        <v>74.121499999999997</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="1"/>
+        <v>71.790000000000006</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="2"/>
+        <v>77.832750000000004</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="3"/>
+        <v>74.680000000000007</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B3:X3">
+    <cfRule type="cellIs" dxfId="108" priority="14" operator="equal">
+      <formula>$AB$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="107" priority="15" operator="equal">
+      <formula>$AA$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="106" priority="16" operator="equal">
+      <formula>$Z$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:X4">
+    <cfRule type="cellIs" dxfId="105" priority="10" operator="equal">
+      <formula>$AB$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="104" priority="11" operator="equal">
+      <formula>$AA$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="103" priority="12" operator="equal">
+      <formula>$Z$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:X5">
+    <cfRule type="cellIs" dxfId="102" priority="7" operator="equal">
+      <formula>$AB$5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="101" priority="8" operator="equal">
+      <formula>$AA$5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="9" operator="equal">
+      <formula>$Z$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:X6">
+    <cfRule type="cellIs" dxfId="99" priority="4" operator="equal">
+      <formula>$AB$6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="98" priority="5" operator="equal">
+      <formula>$AA$6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="97" priority="6" operator="equal">
+      <formula>$Z$6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:X7">
+    <cfRule type="cellIs" dxfId="96" priority="1" operator="equal">
+      <formula>$AB$7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="95" priority="2" operator="equal">
+      <formula>$AA$7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="3" operator="equal">
+      <formula>$Z$7</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5F2D642-CC8C-49E0-81B1-8E2D2D28C046}">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{026369A7-DAFC-4289-83CE-924757679254}">
+  <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14:H18"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>8</v>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>70.59</v>
-      </c>
-      <c r="C2">
-        <v>75.977000000000004</v>
-      </c>
-      <c r="D2">
-        <v>73.183999999999997</v>
-      </c>
-      <c r="E2">
-        <v>606</v>
+      <c r="B3" s="1">
+        <v>70.388000000000005</v>
+      </c>
+      <c r="C3" s="1">
+        <v>75.099000000000004</v>
+      </c>
+      <c r="D3" s="1">
+        <v>72.667000000000002</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>69.843999999999994</v>
+      </c>
+      <c r="H3">
+        <v>73.688999999999993</v>
+      </c>
+      <c r="I3">
+        <v>71.715000000000003</v>
+      </c>
+      <c r="K3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3">
+        <v>50.808999999999997</v>
+      </c>
+      <c r="M3">
+        <v>59.796999999999997</v>
+      </c>
+      <c r="N3">
+        <v>54.938000000000002</v>
+      </c>
+      <c r="P3">
+        <f>MAX(B3,G3,L3)</f>
+        <v>70.388000000000005</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:R7" si="0">MAX(C3,H3,M3)</f>
+        <v>75.099000000000004</v>
+      </c>
+      <c r="R3">
+        <f t="shared" si="0"/>
+        <v>72.667000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>71.203999999999994</v>
-      </c>
-      <c r="C3">
-        <v>75.69</v>
-      </c>
-      <c r="D3">
-        <v>73.378</v>
-      </c>
-      <c r="E3">
-        <v>740</v>
+      <c r="B4" s="1">
+        <v>71.421000000000006</v>
+      </c>
+      <c r="C4" s="1">
+        <v>75.256</v>
+      </c>
+      <c r="D4" s="1">
+        <v>73.289000000000001</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>72.293999999999997</v>
+      </c>
+      <c r="H4">
+        <v>74.632999999999996</v>
+      </c>
+      <c r="I4">
+        <v>73.444999999999993</v>
+      </c>
+      <c r="K4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4">
+        <v>61.719000000000001</v>
+      </c>
+      <c r="M4">
+        <v>67.995000000000005</v>
+      </c>
+      <c r="N4">
+        <v>64.704999999999998</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ref="P4:P7" si="1">MAX(B4,G4,L4)</f>
+        <v>72.293999999999997</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="0"/>
+        <v>75.256</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="0"/>
+        <v>73.444999999999993</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
-        <v>70.649000000000001</v>
-      </c>
-      <c r="C4">
-        <v>78.344999999999999</v>
-      </c>
-      <c r="D4">
-        <v>74.298000000000002</v>
-      </c>
-      <c r="E4">
-        <v>465</v>
+      <c r="B5" s="1">
+        <v>71.652000000000001</v>
+      </c>
+      <c r="C5" s="1">
+        <v>79.248999999999995</v>
+      </c>
+      <c r="D5" s="1">
+        <v>75.259</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5">
+        <v>71.417000000000002</v>
+      </c>
+      <c r="H5">
+        <v>79.227000000000004</v>
+      </c>
+      <c r="I5">
+        <v>75.12</v>
+      </c>
+      <c r="K5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5">
+        <v>61.927</v>
+      </c>
+      <c r="M5">
+        <v>71.584999999999994</v>
+      </c>
+      <c r="N5">
+        <v>66.406999999999996</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="1"/>
+        <v>71.652000000000001</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="0"/>
+        <v>79.248999999999995</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="0"/>
+        <v>75.259</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
-        <v>74.822999999999993</v>
-      </c>
-      <c r="C5">
-        <v>81.471999999999994</v>
-      </c>
-      <c r="D5">
-        <v>78.006</v>
-      </c>
-      <c r="E5">
-        <v>444</v>
+      <c r="B6" s="1">
+        <v>73.698999999999998</v>
+      </c>
+      <c r="C6" s="1">
+        <v>81.727000000000004</v>
+      </c>
+      <c r="D6" s="1">
+        <v>77.504999999999995</v>
+      </c>
+      <c r="F6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6">
+        <v>73.81</v>
+      </c>
+      <c r="H6">
+        <v>81.716999999999999</v>
+      </c>
+      <c r="I6">
+        <v>77.561999999999998</v>
+      </c>
+      <c r="K6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6">
+        <v>67.632999999999996</v>
+      </c>
+      <c r="M6">
+        <v>76.228999999999999</v>
+      </c>
+      <c r="N6">
+        <v>71.674000000000007</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="1"/>
+        <v>73.81</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="0"/>
+        <v>81.727000000000004</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="0"/>
+        <v>77.561999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <f t="shared" ref="B7:I7" si="2">AVERAGE(B3:B6)</f>
+        <v>71.790000000000006</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="2"/>
+        <v>77.832750000000004</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="2"/>
+        <v>74.680000000000007</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>71.841250000000002</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>77.316500000000005</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>74.460499999999996</v>
+      </c>
+      <c r="L7">
+        <f>AVERAGE(L3:L6)</f>
+        <v>60.521999999999991</v>
+      </c>
+      <c r="M7">
+        <f t="shared" ref="M7:N7" si="3">AVERAGE(M3:M6)</f>
+        <v>68.901499999999999</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="3"/>
+        <v>64.431000000000012</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="1"/>
+        <v>71.841250000000002</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="0"/>
+        <v>77.832750000000004</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="0"/>
+        <v>74.680000000000007</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B3:N3">
+    <cfRule type="cellIs" dxfId="93" priority="13" operator="equal">
+      <formula>$R$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="92" priority="14" operator="equal">
+      <formula>$Q$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="91" priority="15" operator="equal">
+      <formula>$P$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:N4">
+    <cfRule type="cellIs" dxfId="90" priority="10" operator="equal">
+      <formula>$R$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="89" priority="11" operator="equal">
+      <formula>$Q$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="12" operator="equal">
+      <formula>$P$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:N5">
+    <cfRule type="cellIs" dxfId="87" priority="7" operator="equal">
+      <formula>$R$5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="86" priority="8" operator="equal">
+      <formula>$Q$5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="85" priority="9" operator="equal">
+      <formula>$P$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:N6">
+    <cfRule type="cellIs" dxfId="84" priority="4" operator="equal">
+      <formula>$R$6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="83" priority="5" operator="equal">
+      <formula>$Q$6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="6" operator="equal">
+      <formula>$P$6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:N7">
+    <cfRule type="cellIs" dxfId="81" priority="1" operator="equal">
+      <formula>$R$7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="80" priority="2" operator="equal">
+      <formula>$Q$7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="79" priority="3" operator="equal">
+      <formula>$P$7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61E40C23-9221-4CE4-B5DB-C293D05C16D4}">
+  <dimension ref="A1:AG7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9:I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="U1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U2" t="s">
+        <v>0</v>
+      </c>
+      <c r="V2" t="s">
+        <v>1</v>
+      </c>
+      <c r="W2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>69.947000000000003</v>
+      </c>
+      <c r="C3">
+        <v>75.433000000000007</v>
+      </c>
+      <c r="D3">
+        <v>72.587000000000003</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>70.59</v>
+      </c>
+      <c r="H3">
+        <v>75.977000000000004</v>
+      </c>
+      <c r="I3">
+        <v>73.183999999999997</v>
+      </c>
+      <c r="K3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3">
+        <v>70.106999999999999</v>
+      </c>
+      <c r="M3">
+        <v>75.951999999999998</v>
+      </c>
+      <c r="N3">
+        <v>72.912999999999997</v>
+      </c>
+      <c r="P3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q3">
+        <v>69.531999999999996</v>
+      </c>
+      <c r="R3">
+        <v>75.234999999999999</v>
+      </c>
+      <c r="S3">
+        <v>72.271000000000001</v>
+      </c>
+      <c r="U3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V3">
+        <v>65.36</v>
+      </c>
+      <c r="W3">
+        <v>71.561000000000007</v>
+      </c>
+      <c r="X3">
+        <v>68.319999999999993</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA3">
+        <v>57.13</v>
+      </c>
+      <c r="AB3">
+        <v>63.929000000000002</v>
+      </c>
+      <c r="AC3">
+        <v>60.338999999999999</v>
+      </c>
+      <c r="AE3">
+        <f>MAX(G3,L3,Q3,V3,AA3)</f>
+        <v>70.59</v>
+      </c>
+      <c r="AF3">
+        <f t="shared" ref="AF3:AG7" si="0">MAX(H3,M3,R3,W3,AB3)</f>
+        <v>75.977000000000004</v>
+      </c>
+      <c r="AG3">
+        <f t="shared" si="0"/>
+        <v>73.183999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>71.561000000000007</v>
+      </c>
+      <c r="C4">
+        <v>74.95</v>
+      </c>
+      <c r="D4">
+        <v>73.215999999999994</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>71.203999999999994</v>
+      </c>
+      <c r="H4">
+        <v>75.69</v>
+      </c>
+      <c r="I4">
+        <v>73.378</v>
+      </c>
+      <c r="K4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4">
+        <v>71.245999999999995</v>
+      </c>
+      <c r="M4">
+        <v>75.816999999999993</v>
+      </c>
+      <c r="N4">
+        <v>73.459999999999994</v>
+      </c>
+      <c r="P4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q4">
+        <v>69.614999999999995</v>
+      </c>
+      <c r="R4">
+        <v>74.781000000000006</v>
+      </c>
+      <c r="S4">
+        <v>72.105999999999995</v>
+      </c>
+      <c r="U4" t="s">
+        <v>5</v>
+      </c>
+      <c r="V4">
+        <v>70.040999999999997</v>
+      </c>
+      <c r="W4">
+        <v>76.134</v>
+      </c>
+      <c r="X4">
+        <v>72.959999999999994</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA4">
+        <v>72.974999999999994</v>
+      </c>
+      <c r="AB4">
+        <v>75.69</v>
+      </c>
+      <c r="AC4">
+        <v>74.307000000000002</v>
+      </c>
+      <c r="AE4">
+        <f t="shared" ref="AE4:AE7" si="1">MAX(G4,L4,Q4,V4,AA4)</f>
+        <v>72.974999999999994</v>
+      </c>
+      <c r="AF4">
+        <f t="shared" si="0"/>
+        <v>76.134</v>
+      </c>
+      <c r="AG4">
+        <f t="shared" si="0"/>
+        <v>74.307000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>71.304000000000002</v>
+      </c>
+      <c r="C5">
+        <v>78.28</v>
+      </c>
+      <c r="D5">
+        <v>74.629000000000005</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5">
+        <v>70.649000000000001</v>
+      </c>
+      <c r="H5">
+        <v>78.344999999999999</v>
+      </c>
+      <c r="I5">
+        <v>74.298000000000002</v>
+      </c>
+      <c r="K5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5">
+        <v>70.673000000000002</v>
+      </c>
+      <c r="M5">
+        <v>78.484999999999999</v>
+      </c>
+      <c r="N5">
+        <v>74.373999999999995</v>
+      </c>
+      <c r="P5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q5">
+        <v>70.034000000000006</v>
+      </c>
+      <c r="R5">
+        <v>77.376000000000005</v>
+      </c>
+      <c r="S5">
+        <v>73.522000000000006</v>
+      </c>
+      <c r="U5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V5">
+        <v>65.498999999999995</v>
+      </c>
+      <c r="W5">
+        <v>74.233000000000004</v>
+      </c>
+      <c r="X5">
+        <v>69.593000000000004</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA5">
+        <v>60.767000000000003</v>
+      </c>
+      <c r="AB5">
+        <v>68.581999999999994</v>
+      </c>
+      <c r="AC5">
+        <v>64.438000000000002</v>
+      </c>
+      <c r="AE5">
+        <f t="shared" si="1"/>
+        <v>70.673000000000002</v>
+      </c>
+      <c r="AF5">
+        <f t="shared" si="0"/>
+        <v>78.484999999999999</v>
+      </c>
+      <c r="AG5">
+        <f t="shared" si="0"/>
+        <v>74.373999999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>74.394999999999996</v>
+      </c>
+      <c r="C6">
+        <v>80.748000000000005</v>
+      </c>
+      <c r="D6">
+        <v>77.441000000000003</v>
+      </c>
+      <c r="F6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6">
+        <v>74.822999999999993</v>
+      </c>
+      <c r="H6">
+        <v>81.471999999999994</v>
+      </c>
+      <c r="I6">
+        <v>78.006</v>
+      </c>
+      <c r="K6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6">
+        <v>73.460999999999999</v>
+      </c>
+      <c r="M6">
+        <v>80.418000000000006</v>
+      </c>
+      <c r="N6">
+        <v>76.781999999999996</v>
+      </c>
+      <c r="P6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q6">
+        <v>72.597999999999999</v>
+      </c>
+      <c r="R6">
+        <v>79.814999999999998</v>
+      </c>
+      <c r="S6">
+        <v>76.036000000000001</v>
+      </c>
+      <c r="U6" t="s">
+        <v>6</v>
+      </c>
+      <c r="V6">
+        <v>69.421000000000006</v>
+      </c>
+      <c r="W6">
+        <v>77.903999999999996</v>
+      </c>
+      <c r="X6">
+        <v>73.418999999999997</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA6">
+        <v>63.774000000000001</v>
+      </c>
+      <c r="AB6">
+        <v>72.725999999999999</v>
+      </c>
+      <c r="AC6">
+        <v>67.956999999999994</v>
+      </c>
+      <c r="AE6">
+        <f t="shared" si="1"/>
+        <v>74.822999999999993</v>
+      </c>
+      <c r="AF6">
+        <f t="shared" si="0"/>
+        <v>81.471999999999994</v>
+      </c>
+      <c r="AG6">
+        <f t="shared" si="0"/>
+        <v>78.006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <f>AVERAGE(B3:B6)</f>
+        <v>71.801749999999998</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7:D7" si="2">AVERAGE(C3:C6)</f>
+        <v>77.35275</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="2"/>
+        <v>74.468250000000012</v>
+      </c>
+      <c r="G7">
+        <f>AVERAGE(G3:G6)</f>
+        <v>71.816499999999991</v>
+      </c>
+      <c r="H7">
+        <f t="shared" ref="H7:AC7" si="3">AVERAGE(H3:H6)</f>
+        <v>77.870999999999995</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>74.716499999999996</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="3"/>
+        <v>71.371750000000006</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="3"/>
+        <v>77.668000000000006</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="3"/>
+        <v>74.382249999999999</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="3"/>
+        <v>70.444749999999999</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="3"/>
+        <v>76.801749999999998</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="3"/>
+        <v>73.483750000000001</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="3"/>
+        <v>67.580250000000007</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="3"/>
+        <v>74.957999999999998</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="3"/>
+        <v>71.072999999999993</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="3"/>
+        <v>63.661499999999997</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="3"/>
+        <v>70.231750000000005</v>
+      </c>
+      <c r="AC7">
+        <f t="shared" si="3"/>
+        <v>66.760249999999999</v>
+      </c>
+      <c r="AE7">
+        <f t="shared" si="1"/>
+        <v>71.816499999999991</v>
+      </c>
+      <c r="AF7">
+        <f t="shared" si="0"/>
+        <v>77.870999999999995</v>
+      </c>
+      <c r="AG7">
+        <f t="shared" si="0"/>
+        <v>74.716499999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="F3:AC3">
+    <cfRule type="cellIs" dxfId="78" priority="15" operator="equal">
+      <formula>$AG$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="77" priority="16" operator="equal">
+      <formula>$AF$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="17" operator="equal">
+      <formula>$AE$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4:AC4">
+    <cfRule type="cellIs" dxfId="75" priority="11" operator="equal">
+      <formula>$AG$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="12" operator="equal">
+      <formula>$AG$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="13" operator="equal">
+      <formula>$AF$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="14" operator="equal">
+      <formula>$AE$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5:AC5">
+    <cfRule type="cellIs" dxfId="71" priority="8" operator="equal">
+      <formula>$AG$5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="9" operator="equal">
+      <formula>$AF$5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="69" priority="10" operator="equal">
+      <formula>$AE$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6:AC6">
+    <cfRule type="cellIs" dxfId="68" priority="5" operator="equal">
+      <formula>$AG$6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="67" priority="6" operator="equal">
+      <formula>$AF$6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="7" operator="equal">
+      <formula>$AE$6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7:AC7">
+    <cfRule type="cellIs" dxfId="65" priority="1" operator="equal">
+      <formula>$AG$7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="2" operator="equal">
+      <formula>$AF$7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="63" priority="3" operator="equal">
+      <formula>$AE$7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:AC6">
+    <cfRule type="cellIs" dxfId="62" priority="4" operator="equal">
+      <formula>$AE$6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9FC98B3-64AE-4B2C-806E-46199B97B2A2}">
+  <dimension ref="A1:W7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:S5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>70.59</v>
+      </c>
+      <c r="C3">
+        <v>75.977000000000004</v>
+      </c>
+      <c r="D3">
+        <v>73.183999999999997</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>68.83</v>
+      </c>
+      <c r="H3">
+        <v>74.926000000000002</v>
+      </c>
+      <c r="I3">
+        <v>71.748000000000005</v>
+      </c>
+      <c r="K3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3">
+        <v>58.487000000000002</v>
+      </c>
+      <c r="M3">
+        <v>65.808999999999997</v>
+      </c>
+      <c r="N3">
+        <v>61.932000000000002</v>
+      </c>
+      <c r="P3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q3">
+        <v>67.040999999999997</v>
+      </c>
+      <c r="R3">
+        <v>73.046000000000006</v>
+      </c>
+      <c r="S3">
+        <v>69.915000000000006</v>
+      </c>
+      <c r="U3">
+        <f>MAX(B3,G3,L3,Q3)</f>
+        <v>70.59</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ref="V3:W3" si="0">MAX(C3,H3,M3,R3)</f>
+        <v>75.977000000000004</v>
+      </c>
+      <c r="W3">
+        <f t="shared" si="0"/>
+        <v>73.183999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>71.203999999999994</v>
+      </c>
+      <c r="C4">
+        <v>75.69</v>
+      </c>
+      <c r="D4">
+        <v>73.378</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>69.653000000000006</v>
+      </c>
+      <c r="H4">
+        <v>74.453000000000003</v>
+      </c>
+      <c r="I4">
+        <v>71.972999999999999</v>
+      </c>
+      <c r="K4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4">
+        <v>70.158000000000001</v>
+      </c>
+      <c r="M4">
+        <v>75.045000000000002</v>
+      </c>
+      <c r="N4">
+        <v>72.519000000000005</v>
+      </c>
+      <c r="P4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q4">
+        <v>64.766999999999996</v>
+      </c>
+      <c r="R4">
+        <v>69.537999999999997</v>
+      </c>
+      <c r="S4">
+        <v>67.067999999999998</v>
+      </c>
+      <c r="U4">
+        <f t="shared" ref="U4:U7" si="1">MAX(B4,G4,L4,Q4)</f>
+        <v>71.203999999999994</v>
+      </c>
+      <c r="V4">
+        <f t="shared" ref="V4:V7" si="2">MAX(C4,H4,M4,R4)</f>
+        <v>75.69</v>
+      </c>
+      <c r="W4">
+        <f t="shared" ref="W4:W7" si="3">MAX(D4,I4,N4,S4)</f>
+        <v>73.378</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>70.649000000000001</v>
+      </c>
+      <c r="C5">
+        <v>78.344999999999999</v>
+      </c>
+      <c r="D5">
+        <v>74.298000000000002</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5">
+        <v>70.11</v>
+      </c>
+      <c r="H5">
+        <v>78.010999999999996</v>
+      </c>
+      <c r="I5">
+        <v>73.849999999999994</v>
+      </c>
+      <c r="K5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5">
+        <v>61.073</v>
+      </c>
+      <c r="M5">
+        <v>68.355999999999995</v>
+      </c>
+      <c r="N5">
+        <v>64.510000000000005</v>
+      </c>
+      <c r="P5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q5">
+        <v>69.242000000000004</v>
+      </c>
+      <c r="R5">
+        <v>76.784000000000006</v>
+      </c>
+      <c r="S5">
+        <v>72.817999999999998</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="1"/>
+        <v>70.649000000000001</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="2"/>
+        <v>78.344999999999999</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="3"/>
+        <v>74.298000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>74.822999999999993</v>
+      </c>
+      <c r="C6">
+        <v>81.471999999999994</v>
+      </c>
+      <c r="D6">
+        <v>78.006</v>
+      </c>
+      <c r="F6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6">
+        <v>73.244</v>
+      </c>
+      <c r="H6">
+        <v>80.409000000000006</v>
+      </c>
+      <c r="I6">
+        <v>76.659000000000006</v>
+      </c>
+      <c r="K6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6">
+        <v>65.305000000000007</v>
+      </c>
+      <c r="M6">
+        <v>73.150000000000006</v>
+      </c>
+      <c r="N6">
+        <v>69.004999999999995</v>
+      </c>
+      <c r="P6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q6">
+        <v>73.256</v>
+      </c>
+      <c r="R6">
+        <v>79.58</v>
+      </c>
+      <c r="S6">
+        <v>76.287000000000006</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="1"/>
+        <v>74.822999999999993</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="2"/>
+        <v>81.471999999999994</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="3"/>
+        <v>78.006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <f>AVERAGE(B3:B6)</f>
+        <v>71.816499999999991</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7:N7" si="4">AVERAGE(C3:C6)</f>
+        <v>77.870999999999995</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="4"/>
+        <v>74.716499999999996</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="4"/>
+        <v>70.459249999999997</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="4"/>
+        <v>76.949750000000009</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="4"/>
+        <v>73.557500000000005</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="4"/>
+        <v>63.755750000000006</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="4"/>
+        <v>70.59</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="4"/>
+        <v>66.991500000000002</v>
+      </c>
+      <c r="Q7">
+        <f>AVERAGE(Q3:Q6)</f>
+        <v>68.57650000000001</v>
+      </c>
+      <c r="R7">
+        <f t="shared" ref="R7:S7" si="5">AVERAGE(R3:R6)</f>
+        <v>74.736999999999995</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="5"/>
+        <v>71.521999999999991</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="1"/>
+        <v>71.816499999999991</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="2"/>
+        <v>77.870999999999995</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="3"/>
+        <v>74.716499999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B3:S3">
+    <cfRule type="cellIs" dxfId="16" priority="9" operator="equal">
+      <formula>$U$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="8" operator="equal">
+      <formula>$V$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
+      <formula>$W$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:S4">
+    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
+      <formula>$U$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
+      <formula>$V$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+      <formula>$W$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:S5">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>$U$5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>$V$5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>$W$5</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/results_compilation.xlsx
+++ b/results_compilation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ae12d2469d1e1992/Documents/MORPH_SEGMENT2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="237" documentId="8_{D2BD0764-5A21-4851-BD1F-53FF774EF26B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9FFE168-A591-4E73-9062-962EC3AC15D6}"/>
+  <xr:revisionPtr revIDLastSave="373" documentId="8_{D2BD0764-5A21-4851-BD1F-53FF774EF26B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2B65C42-250B-49EA-90FA-E2AD4DCF4013}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{B90F57C1-6634-4844-9385-30D5D93C881D}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="40">
   <si>
     <t>Language</t>
   </si>
@@ -64,48 +64,6 @@
   </si>
   <si>
     <t>Xhosa</t>
-  </si>
-  <si>
-    <t>hard_0.4</t>
-  </si>
-  <si>
-    <t>hard_0.5</t>
-  </si>
-  <si>
-    <t>hard_0.6</t>
-  </si>
-  <si>
-    <t>hard_0.7</t>
-  </si>
-  <si>
-    <t>soft_0.3</t>
-  </si>
-  <si>
-    <t>soft_0.4</t>
-  </si>
-  <si>
-    <t>soft_0.5</t>
-  </si>
-  <si>
-    <t>soft_0.6</t>
-  </si>
-  <si>
-    <t>soft_0.7</t>
-  </si>
-  <si>
-    <t>hard_0.3</t>
-  </si>
-  <si>
-    <t>hard_small_0.3</t>
-  </si>
-  <si>
-    <t>hard_small_0.4</t>
-  </si>
-  <si>
-    <t>hard_small_0.5</t>
-  </si>
-  <si>
-    <t>soft_0.2</t>
   </si>
   <si>
     <t>hard_lr_0.0001</t>
@@ -132,14 +90,83 @@
     <t>Max</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>soft_lr_0.2</t>
+  </si>
+  <si>
+    <t>soft_lr_0.3</t>
+  </si>
+  <si>
+    <t>soft_lr_0.4</t>
+  </si>
+  <si>
+    <t>soft_lr_0.5</t>
+  </si>
+  <si>
+    <t>soft_lr_0.6</t>
+  </si>
+  <si>
+    <t>soft_lr_0.7</t>
+  </si>
+  <si>
+    <t>hard_dropout_0.3test</t>
+  </si>
+  <si>
+    <t>hard_dropout_0.4test</t>
+  </si>
+  <si>
+    <t>hard_dropout_0.5test</t>
+  </si>
+  <si>
+    <t>hard_dropout_0.3dev</t>
+  </si>
+  <si>
+    <t>hard_dropout_0.4dev</t>
+  </si>
+  <si>
+    <t>hard_dropout_0.5dev</t>
+  </si>
+  <si>
+    <t>hard_dropout_0.6dev</t>
+  </si>
+  <si>
+    <t>hard_dropout_0.7dev</t>
+  </si>
+  <si>
+    <t>hard_dropout_0.2dev</t>
+  </si>
+  <si>
+    <t>soft_dropout_0.2test</t>
+  </si>
+  <si>
+    <t>soft_dropout_0.3test</t>
+  </si>
+  <si>
+    <t>soft_dropout_0.4test</t>
+  </si>
+  <si>
+    <t>soft_dropout_0.5test</t>
+  </si>
+  <si>
+    <t>soft_dropout_0.6test</t>
+  </si>
+  <si>
+    <t>soft_dropout_0.7test</t>
+  </si>
+  <si>
+    <t>hard_dropout_0.6test</t>
+  </si>
+  <si>
+    <t>hard_dropout_0.7test</t>
+  </si>
+  <si>
+    <t>hard_dropout_0.2test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,6 +176,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -174,14 +209,4075 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="229">
+  <dxfs count="635">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2782,26 +6878,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F58562B-27CC-4AED-8160-A51C418AC6F7}">
-  <dimension ref="F1:W11"/>
+  <dimension ref="A1:W16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="A12" sqref="A12:W16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
       <c r="F1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="K1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="P1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="2" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
       <c r="F2" t="s">
         <v>0</v>
       </c>
@@ -2839,262 +6950,749 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>97.661000000000001</v>
+      </c>
+      <c r="C3">
+        <v>96.641000000000005</v>
+      </c>
+      <c r="D3">
+        <v>97.147999999999996</v>
+      </c>
       <c r="F3" t="s">
         <v>4</v>
       </c>
       <c r="G3">
-        <v>69.981999999999999</v>
+        <v>97.57</v>
       </c>
       <c r="H3">
-        <v>73.887</v>
+        <v>96.230999999999995</v>
       </c>
       <c r="I3">
-        <v>71.882000000000005</v>
+        <v>96.896000000000001</v>
       </c>
       <c r="K3" t="s">
         <v>4</v>
       </c>
       <c r="L3">
-        <v>69.679000000000002</v>
+        <v>96.971000000000004</v>
       </c>
       <c r="M3">
-        <v>73.540000000000006</v>
+        <v>95.739000000000004</v>
       </c>
       <c r="N3">
-        <v>71.558000000000007</v>
+        <v>96.350999999999999</v>
       </c>
       <c r="P3" t="s">
         <v>4</v>
       </c>
       <c r="Q3">
-        <v>70.213999999999999</v>
+        <v>96.55</v>
       </c>
       <c r="R3">
-        <v>74.356999999999999</v>
+        <v>95.165999999999997</v>
       </c>
       <c r="S3">
-        <v>72.225999999999999</v>
+        <v>95.852999999999994</v>
       </c>
       <c r="U3">
         <f>MAX(G3,L3,Q3)</f>
-        <v>70.213999999999999</v>
+        <v>97.57</v>
       </c>
       <c r="V3">
         <f t="shared" ref="V3:W3" si="0">MAX(H3,M3,R3)</f>
-        <v>74.356999999999999</v>
+        <v>96.230999999999995</v>
       </c>
       <c r="W3">
         <f t="shared" si="0"/>
-        <v>72.225999999999999</v>
+        <v>96.896000000000001</v>
       </c>
     </row>
-    <row r="4" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>99.841999999999999</v>
+      </c>
+      <c r="C4">
+        <v>99.921000000000006</v>
+      </c>
+      <c r="D4">
+        <v>99.881</v>
+      </c>
       <c r="F4" t="s">
         <v>5</v>
       </c>
       <c r="G4">
-        <v>72.971000000000004</v>
+        <v>99.763000000000005</v>
       </c>
       <c r="H4">
-        <v>76.102000000000004</v>
+        <v>99.881</v>
       </c>
       <c r="I4">
-        <v>74.503</v>
+        <v>99.822000000000003</v>
       </c>
       <c r="K4" t="s">
         <v>5</v>
       </c>
       <c r="L4">
-        <v>69.057000000000002</v>
+        <v>99.841999999999999</v>
       </c>
       <c r="M4">
-        <v>74.114999999999995</v>
+        <v>99.921000000000006</v>
       </c>
       <c r="N4">
-        <v>71.495999999999995</v>
+        <v>99.881</v>
       </c>
       <c r="P4" t="s">
         <v>5</v>
       </c>
       <c r="Q4">
-        <v>71.058999999999997</v>
+        <v>99.724000000000004</v>
       </c>
       <c r="R4">
-        <v>75.234999999999999</v>
+        <v>99.881</v>
       </c>
       <c r="S4">
-        <v>73.087999999999994</v>
+        <v>99.802999999999997</v>
       </c>
       <c r="U4">
         <f t="shared" ref="U4:U7" si="1">MAX(G4,L4,Q4)</f>
-        <v>72.971000000000004</v>
+        <v>99.841999999999999</v>
       </c>
       <c r="V4">
         <f t="shared" ref="V4:V7" si="2">MAX(H4,M4,R4)</f>
-        <v>76.102000000000004</v>
+        <v>99.921000000000006</v>
       </c>
       <c r="W4">
         <f t="shared" ref="W4:W7" si="3">MAX(I4,N4,S4)</f>
-        <v>74.503</v>
+        <v>99.881</v>
       </c>
     </row>
-    <row r="5" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>99.921999999999997</v>
+      </c>
+      <c r="C5">
+        <v>99.953000000000003</v>
+      </c>
+      <c r="D5">
+        <v>99.938000000000002</v>
+      </c>
       <c r="F5" t="s">
         <v>7</v>
       </c>
       <c r="G5">
-        <v>72.545000000000002</v>
+        <v>99.921999999999997</v>
       </c>
       <c r="H5">
-        <v>79.603999999999999</v>
+        <v>99.953000000000003</v>
       </c>
       <c r="I5">
-        <v>75.911000000000001</v>
+        <v>99.938000000000002</v>
       </c>
       <c r="K5" t="s">
         <v>7</v>
       </c>
       <c r="L5">
-        <v>71.05</v>
+        <v>99.906999999999996</v>
       </c>
       <c r="M5">
-        <v>78.451999999999998</v>
+        <v>99.891000000000005</v>
       </c>
       <c r="N5">
-        <v>74.567999999999998</v>
+        <v>99.899000000000001</v>
       </c>
       <c r="P5" t="s">
         <v>7</v>
       </c>
       <c r="Q5">
-        <v>72.241</v>
+        <v>99.86</v>
       </c>
       <c r="R5">
-        <v>79.603999999999999</v>
+        <v>99.844999999999999</v>
       </c>
       <c r="S5">
-        <v>75.744</v>
+        <v>99.852000000000004</v>
       </c>
       <c r="U5">
         <f t="shared" si="1"/>
-        <v>72.545000000000002</v>
+        <v>99.921999999999997</v>
       </c>
       <c r="V5">
         <f t="shared" si="2"/>
-        <v>79.603999999999999</v>
+        <v>99.953000000000003</v>
       </c>
       <c r="W5">
         <f t="shared" si="3"/>
-        <v>75.911000000000001</v>
+        <v>99.938000000000002</v>
       </c>
     </row>
-    <row r="6" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>99.6</v>
+      </c>
+      <c r="C6">
+        <v>99.481999999999999</v>
+      </c>
+      <c r="D6">
+        <v>99.540999999999997</v>
+      </c>
       <c r="F6" t="s">
         <v>6</v>
       </c>
       <c r="G6">
-        <v>74.623000000000005</v>
+        <v>99.525999999999996</v>
       </c>
       <c r="H6">
-        <v>81.971000000000004</v>
+        <v>99.379000000000005</v>
       </c>
       <c r="I6">
-        <v>78.125</v>
+        <v>99.451999999999998</v>
       </c>
       <c r="K6" t="s">
         <v>6</v>
       </c>
       <c r="L6">
-        <v>74.656000000000006</v>
+        <v>99.436999999999998</v>
       </c>
       <c r="M6">
-        <v>82.225999999999999</v>
+        <v>99.334000000000003</v>
       </c>
       <c r="N6">
-        <v>78.257999999999996</v>
+        <v>99.385999999999996</v>
       </c>
       <c r="P6" t="s">
         <v>6</v>
       </c>
       <c r="Q6">
-        <v>74.09</v>
+        <v>99.378</v>
       </c>
       <c r="R6">
-        <v>82.028000000000006</v>
+        <v>99.26</v>
       </c>
       <c r="S6">
-        <v>77.856999999999999</v>
+        <v>99.319000000000003</v>
       </c>
       <c r="U6">
         <f t="shared" si="1"/>
-        <v>74.656000000000006</v>
+        <v>99.525999999999996</v>
       </c>
       <c r="V6">
         <f t="shared" si="2"/>
-        <v>82.225999999999999</v>
+        <v>99.379000000000005</v>
       </c>
       <c r="W6">
         <f t="shared" si="3"/>
-        <v>78.257999999999996</v>
+        <v>99.451999999999998</v>
       </c>
     </row>
-    <row r="7" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <f>AVERAGE(B3:B6)</f>
+        <v>99.256249999999994</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7:D7" si="4">AVERAGE(C3:C6)</f>
+        <v>98.999249999999989</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="4"/>
+        <v>99.126999999999995</v>
+      </c>
       <c r="G7">
         <f>AVERAGE(G3:G6)</f>
-        <v>72.530249999999995</v>
+        <v>99.195250000000001</v>
       </c>
       <c r="H7">
-        <f t="shared" ref="H7:S7" si="4">AVERAGE(H3:H6)</f>
-        <v>77.891000000000005</v>
+        <f t="shared" ref="H7:S7" si="5">AVERAGE(H3:H6)</f>
+        <v>98.861000000000004</v>
       </c>
       <c r="I7">
-        <f t="shared" si="4"/>
-        <v>75.105249999999998</v>
+        <f t="shared" si="5"/>
+        <v>99.027000000000001</v>
       </c>
       <c r="L7">
-        <f t="shared" si="4"/>
-        <v>71.110500000000002</v>
+        <f t="shared" si="5"/>
+        <v>99.039249999999996</v>
       </c>
       <c r="M7">
-        <f t="shared" si="4"/>
-        <v>77.083249999999992</v>
+        <f t="shared" si="5"/>
+        <v>98.721250000000012</v>
       </c>
       <c r="N7">
-        <f t="shared" si="4"/>
-        <v>73.97</v>
+        <f t="shared" si="5"/>
+        <v>98.879249999999985</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="4"/>
-        <v>71.90100000000001</v>
+        <f t="shared" si="5"/>
+        <v>98.878</v>
       </c>
       <c r="R7">
-        <f t="shared" si="4"/>
-        <v>77.805999999999997</v>
+        <f t="shared" si="5"/>
+        <v>98.537999999999997</v>
       </c>
       <c r="S7">
-        <f t="shared" si="4"/>
-        <v>74.728749999999991</v>
+        <f t="shared" si="5"/>
+        <v>98.706750000000014</v>
       </c>
       <c r="U7">
         <f t="shared" si="1"/>
-        <v>72.530249999999995</v>
+        <v>99.195250000000001</v>
       </c>
       <c r="V7">
         <f t="shared" si="2"/>
-        <v>77.891000000000005</v>
+        <v>98.861000000000004</v>
       </c>
       <c r="W7">
         <f t="shared" si="3"/>
+        <v>99.027000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" t="s">
+        <v>23</v>
+      </c>
+      <c r="P10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" t="s">
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
+        <v>1</v>
+      </c>
+      <c r="M11" t="s">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>3</v>
+      </c>
+      <c r="P11" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>1</v>
+      </c>
+      <c r="R11" t="s">
+        <v>2</v>
+      </c>
+      <c r="S11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>70.143000000000001</v>
+      </c>
+      <c r="C12">
+        <v>74.048000000000002</v>
+      </c>
+      <c r="D12">
+        <v>72.042000000000002</v>
+      </c>
+      <c r="F12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>69.981999999999999</v>
+      </c>
+      <c r="H12">
+        <v>73.887</v>
+      </c>
+      <c r="I12">
+        <v>71.882000000000005</v>
+      </c>
+      <c r="K12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12">
+        <v>69.679000000000002</v>
+      </c>
+      <c r="M12">
+        <v>73.540000000000006</v>
+      </c>
+      <c r="N12">
+        <v>71.558000000000007</v>
+      </c>
+      <c r="P12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q12">
+        <v>70.213999999999999</v>
+      </c>
+      <c r="R12">
+        <v>74.356999999999999</v>
+      </c>
+      <c r="S12">
+        <v>72.225999999999999</v>
+      </c>
+      <c r="U12">
+        <f>MAX(G12,L12,Q12)</f>
+        <v>70.213999999999999</v>
+      </c>
+      <c r="V12">
+        <f t="shared" ref="V12:V16" si="6">MAX(H12,M12,R12)</f>
+        <v>74.356999999999999</v>
+      </c>
+      <c r="W12">
+        <f t="shared" ref="W12:W16" si="7">MAX(I12,N12,S12)</f>
+        <v>72.225999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>70.768000000000001</v>
+      </c>
+      <c r="C13">
+        <v>74.411000000000001</v>
+      </c>
+      <c r="D13">
+        <v>72.543999999999997</v>
+      </c>
+      <c r="F13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>72.971000000000004</v>
+      </c>
+      <c r="H13">
+        <v>76.102000000000004</v>
+      </c>
+      <c r="I13">
+        <v>74.503</v>
+      </c>
+      <c r="K13" t="s">
+        <v>5</v>
+      </c>
+      <c r="L13">
+        <v>69.057000000000002</v>
+      </c>
+      <c r="M13">
+        <v>74.114999999999995</v>
+      </c>
+      <c r="N13">
+        <v>71.495999999999995</v>
+      </c>
+      <c r="P13" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q13">
+        <v>71.058999999999997</v>
+      </c>
+      <c r="R13">
+        <v>75.234999999999999</v>
+      </c>
+      <c r="S13">
+        <v>73.087999999999994</v>
+      </c>
+      <c r="U13">
+        <f t="shared" ref="U13:U16" si="8">MAX(G13,L13,Q13)</f>
+        <v>72.971000000000004</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="6"/>
+        <v>76.102000000000004</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="7"/>
+        <v>74.503</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>71.878</v>
+      </c>
+      <c r="C14">
+        <v>79.173000000000002</v>
+      </c>
+      <c r="D14">
+        <v>75.349999999999994</v>
+      </c>
+      <c r="F14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14">
+        <v>72.545000000000002</v>
+      </c>
+      <c r="H14">
+        <v>79.603999999999999</v>
+      </c>
+      <c r="I14">
+        <v>75.911000000000001</v>
+      </c>
+      <c r="K14" t="s">
+        <v>7</v>
+      </c>
+      <c r="L14">
+        <v>71.05</v>
+      </c>
+      <c r="M14">
+        <v>78.451999999999998</v>
+      </c>
+      <c r="N14">
+        <v>74.567999999999998</v>
+      </c>
+      <c r="P14" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q14">
+        <v>72.241</v>
+      </c>
+      <c r="R14">
+        <v>79.603999999999999</v>
+      </c>
+      <c r="S14">
+        <v>75.744</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="8"/>
+        <v>72.545000000000002</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="6"/>
+        <v>79.603999999999999</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="7"/>
+        <v>75.911000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>73.902000000000001</v>
+      </c>
+      <c r="C15">
+        <v>81.707999999999998</v>
+      </c>
+      <c r="D15">
+        <v>77.608999999999995</v>
+      </c>
+      <c r="F15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15">
+        <v>74.623000000000005</v>
+      </c>
+      <c r="H15">
+        <v>81.971000000000004</v>
+      </c>
+      <c r="I15">
+        <v>78.125</v>
+      </c>
+      <c r="K15" t="s">
+        <v>6</v>
+      </c>
+      <c r="L15">
+        <v>74.656000000000006</v>
+      </c>
+      <c r="M15">
+        <v>82.225999999999999</v>
+      </c>
+      <c r="N15">
+        <v>78.257999999999996</v>
+      </c>
+      <c r="P15" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q15">
+        <v>74.09</v>
+      </c>
+      <c r="R15">
+        <v>82.028000000000006</v>
+      </c>
+      <c r="S15">
+        <v>77.856999999999999</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="8"/>
+        <v>74.656000000000006</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="6"/>
+        <v>82.225999999999999</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="7"/>
+        <v>78.257999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <f>AVERAGE(B12:B15)</f>
+        <v>71.672749999999994</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ref="C16:S16" si="9">AVERAGE(C12:C15)</f>
+        <v>77.335000000000008</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="9"/>
+        <v>74.386250000000004</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="9"/>
+        <v>72.530249999999995</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="9"/>
+        <v>77.891000000000005</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="9"/>
         <v>75.105249999999998</v>
       </c>
-    </row>
-    <row r="11" spans="6:23" x14ac:dyDescent="0.25">
-      <c r="F11" t="s">
-        <v>30</v>
+      <c r="L16">
+        <f t="shared" si="9"/>
+        <v>71.110500000000002</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="9"/>
+        <v>77.083249999999992</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="9"/>
+        <v>73.97</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="9"/>
+        <v>71.90100000000001</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="9"/>
+        <v>77.805999999999997</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="9"/>
+        <v>74.728749999999991</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="8"/>
+        <v>72.530249999999995</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="6"/>
+        <v>77.891000000000005</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="7"/>
+        <v>75.105249999999998</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A3:S3">
+    <cfRule type="cellIs" dxfId="30" priority="16" operator="equal">
+      <formula>$U$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="15" operator="equal">
+      <formula>$V$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="14" operator="equal">
+      <formula>$W$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:S4">
+    <cfRule type="cellIs" dxfId="27" priority="13" operator="equal">
+      <formula>$U$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="12" operator="equal">
+      <formula>$V$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="11" operator="equal">
+      <formula>$W$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:S5">
+    <cfRule type="cellIs" dxfId="24" priority="10" operator="equal">
+      <formula>$U$5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="9" operator="equal">
+      <formula>$V$5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="8" operator="equal">
+      <formula>$W$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:S6">
+    <cfRule type="cellIs" dxfId="21" priority="7" operator="equal">
+      <formula>$U$6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="6" operator="equal">
+      <formula>$V$6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
+      <formula>$W$6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7:S7">
+    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
+      <formula>$U$7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
+      <formula>$V$7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
+      <formula>$W$7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12:W16">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3102,29 +7700,29 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0364A18-6E38-4EA2-885E-36316BFFBB0F}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AB7"/>
+  <dimension ref="A1:AB16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P9" sqref="P9:S13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="P1" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="U1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
@@ -3188,79 +7786,88 @@
       <c r="X2" t="s">
         <v>3</v>
       </c>
+      <c r="Z2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3">
-        <v>70.099000000000004</v>
+        <v>97.698999999999998</v>
       </c>
       <c r="C3">
-        <v>74.096999999999994</v>
+        <v>96.518000000000001</v>
       </c>
       <c r="D3">
-        <v>72.043000000000006</v>
+        <v>97.105000000000004</v>
       </c>
       <c r="F3" t="s">
         <v>4</v>
       </c>
       <c r="G3">
-        <v>70.423000000000002</v>
+        <v>97.656000000000006</v>
       </c>
       <c r="H3">
-        <v>74.518000000000001</v>
+        <v>96.415000000000006</v>
       </c>
       <c r="I3">
-        <v>72.412999999999997</v>
+        <v>97.031999999999996</v>
       </c>
       <c r="K3" t="s">
         <v>4</v>
       </c>
       <c r="L3" s="1">
-        <v>70.888999999999996</v>
+        <v>97.34</v>
       </c>
       <c r="M3">
-        <v>74.974999999999994</v>
+        <v>95.944000000000003</v>
       </c>
       <c r="N3" s="1">
-        <v>72.875</v>
+        <v>96.637</v>
       </c>
       <c r="P3" t="s">
         <v>4</v>
       </c>
       <c r="Q3" s="1">
-        <v>70.388000000000005</v>
+        <v>96.840999999999994</v>
       </c>
       <c r="R3" s="1">
-        <v>75.099000000000004</v>
+        <v>95.453000000000003</v>
       </c>
       <c r="S3" s="1">
-        <v>72.667000000000002</v>
+        <v>96.141999999999996</v>
       </c>
       <c r="U3" t="s">
         <v>4</v>
       </c>
       <c r="V3">
-        <v>69.944999999999993</v>
+        <v>95.905000000000001</v>
       </c>
       <c r="W3">
-        <v>74.504999999999995</v>
+        <v>94.51</v>
       </c>
       <c r="X3">
-        <v>72.153000000000006</v>
+        <v>95.203000000000003</v>
       </c>
       <c r="Z3">
         <f>MAX(B3, G3,L3,Q3,V3)</f>
-        <v>70.888999999999996</v>
+        <v>97.698999999999998</v>
       </c>
       <c r="AA3">
         <f t="shared" ref="AA3:AB3" si="0">MAX(C3, H3,M3,R3,W3)</f>
-        <v>75.099000000000004</v>
+        <v>96.518000000000001</v>
       </c>
       <c r="AB3">
         <f t="shared" si="0"/>
-        <v>72.875</v>
+        <v>97.105000000000004</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
@@ -3268,73 +7875,73 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>68.537999999999997</v>
+        <v>99.841999999999999</v>
       </c>
       <c r="C4">
-        <v>72.92</v>
+        <v>99.921000000000006</v>
       </c>
       <c r="D4">
-        <v>70.661000000000001</v>
+        <v>99.881</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
       </c>
       <c r="G4">
-        <v>69.998000000000005</v>
+        <v>99.841999999999999</v>
       </c>
       <c r="H4">
-        <v>73.808000000000007</v>
+        <v>99.921000000000006</v>
       </c>
       <c r="I4">
-        <v>71.852999999999994</v>
+        <v>99.881</v>
       </c>
       <c r="K4" t="s">
         <v>5</v>
       </c>
       <c r="L4">
-        <v>69.948999999999998</v>
+        <v>99.841999999999999</v>
       </c>
       <c r="M4">
-        <v>73.808000000000007</v>
+        <v>99.921000000000006</v>
       </c>
       <c r="N4">
-        <v>71.826999999999998</v>
+        <v>99.881</v>
       </c>
       <c r="P4" t="s">
         <v>5</v>
       </c>
       <c r="Q4" s="1">
-        <v>71.421000000000006</v>
+        <v>99.722999999999999</v>
       </c>
       <c r="R4" s="1">
-        <v>75.256</v>
+        <v>99.763000000000005</v>
       </c>
       <c r="S4" s="1">
-        <v>73.289000000000001</v>
+        <v>99.742999999999995</v>
       </c>
       <c r="U4" t="s">
         <v>5</v>
       </c>
       <c r="V4">
-        <v>70.748999999999995</v>
+        <v>99.173000000000002</v>
       </c>
       <c r="W4">
-        <v>74.367999999999995</v>
+        <v>99.564999999999998</v>
       </c>
       <c r="X4">
-        <v>72.513999999999996</v>
+        <v>99.369</v>
       </c>
       <c r="Z4">
         <f t="shared" ref="Z4:Z7" si="1">MAX(B4, G4,L4,Q4,V4)</f>
-        <v>71.421000000000006</v>
+        <v>99.841999999999999</v>
       </c>
       <c r="AA4">
         <f t="shared" ref="AA4:AA7" si="2">MAX(C4, H4,M4,R4,W4)</f>
-        <v>75.256</v>
+        <v>99.921000000000006</v>
       </c>
       <c r="AB4">
         <f t="shared" ref="AB4:AB7" si="3">MAX(D4, I4,N4,S4,X4)</f>
-        <v>73.289000000000001</v>
+        <v>99.881</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -3342,73 +7949,73 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>71.840999999999994</v>
+        <v>99.921999999999997</v>
       </c>
       <c r="C5">
-        <v>79.055000000000007</v>
+        <v>99.953000000000003</v>
       </c>
       <c r="D5">
-        <v>75.275000000000006</v>
+        <v>99.938000000000002</v>
       </c>
       <c r="F5" t="s">
         <v>7</v>
       </c>
       <c r="G5">
-        <v>71.546999999999997</v>
+        <v>99.921999999999997</v>
       </c>
       <c r="H5">
-        <v>79.108999999999995</v>
+        <v>99.953000000000003</v>
       </c>
       <c r="I5">
-        <v>75.138000000000005</v>
+        <v>99.938000000000002</v>
       </c>
       <c r="K5" t="s">
         <v>7</v>
       </c>
       <c r="L5">
-        <v>71.52</v>
+        <v>99.938000000000002</v>
       </c>
       <c r="M5">
-        <v>79.355999999999995</v>
+        <v>99.921999999999997</v>
       </c>
       <c r="N5">
-        <v>75.234999999999999</v>
+        <v>99.93</v>
       </c>
       <c r="P5" t="s">
         <v>7</v>
       </c>
       <c r="Q5" s="1">
-        <v>71.652000000000001</v>
+        <v>99.86</v>
       </c>
       <c r="R5" s="1">
-        <v>79.248999999999995</v>
+        <v>99.844999999999999</v>
       </c>
       <c r="S5" s="1">
-        <v>75.259</v>
+        <v>99.852000000000004</v>
       </c>
       <c r="U5" t="s">
         <v>7</v>
       </c>
       <c r="V5">
-        <v>71.009</v>
+        <v>98.929000000000002</v>
       </c>
       <c r="W5">
-        <v>78.668000000000006</v>
+        <v>99.006</v>
       </c>
       <c r="X5">
-        <v>74.643000000000001</v>
+        <v>98.968000000000004</v>
       </c>
       <c r="Z5">
         <f t="shared" si="1"/>
-        <v>71.840999999999994</v>
+        <v>99.938000000000002</v>
       </c>
       <c r="AA5">
         <f t="shared" si="2"/>
-        <v>79.355999999999995</v>
+        <v>99.953000000000003</v>
       </c>
       <c r="AB5">
         <f t="shared" si="3"/>
-        <v>75.275000000000006</v>
+        <v>99.938000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
@@ -3416,204 +8023,665 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>74.501999999999995</v>
+        <v>99.614999999999995</v>
       </c>
       <c r="C6">
-        <v>81.641999999999996</v>
+        <v>99.466999999999999</v>
       </c>
       <c r="D6">
-        <v>77.909000000000006</v>
+        <v>99.540999999999997</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
       </c>
       <c r="G6">
-        <v>73.412000000000006</v>
+        <v>99.6</v>
       </c>
       <c r="H6">
-        <v>80.191999999999993</v>
+        <v>99.466999999999999</v>
       </c>
       <c r="I6">
-        <v>76.652000000000001</v>
+        <v>99.534000000000006</v>
       </c>
       <c r="K6" t="s">
         <v>6</v>
       </c>
       <c r="L6">
-        <v>72.884</v>
+        <v>99.497</v>
       </c>
       <c r="M6">
-        <v>80.013000000000005</v>
+        <v>99.438000000000002</v>
       </c>
       <c r="N6">
-        <v>76.281999999999996</v>
+        <v>99.466999999999999</v>
       </c>
       <c r="P6" t="s">
         <v>6</v>
       </c>
       <c r="Q6" s="1">
-        <v>73.698999999999998</v>
+        <v>99.29</v>
       </c>
       <c r="R6" s="1">
-        <v>81.727000000000004</v>
+        <v>99.230999999999995</v>
       </c>
       <c r="S6" s="1">
-        <v>77.504999999999995</v>
+        <v>99.26</v>
       </c>
       <c r="U6" t="s">
         <v>6</v>
       </c>
       <c r="V6">
-        <v>73.165000000000006</v>
+        <v>99.113</v>
       </c>
       <c r="W6">
-        <v>81.650999999999996</v>
+        <v>99.156999999999996</v>
       </c>
       <c r="X6">
-        <v>77.176000000000002</v>
+        <v>99.135000000000005</v>
       </c>
       <c r="Z6">
         <f t="shared" si="1"/>
-        <v>74.501999999999995</v>
+        <v>99.614999999999995</v>
       </c>
       <c r="AA6">
         <f t="shared" si="2"/>
-        <v>81.727000000000004</v>
+        <v>99.466999999999999</v>
       </c>
       <c r="AB6">
         <f t="shared" si="3"/>
-        <v>77.909000000000006</v>
+        <v>99.540999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B7">
         <f>AVERAGE(B3:B6)</f>
-        <v>71.245000000000005</v>
+        <v>99.269499999999994</v>
       </c>
       <c r="C7">
         <f t="shared" ref="C7:D7" si="4">AVERAGE(C3:C6)</f>
-        <v>76.9285</v>
+        <v>98.964750000000009</v>
       </c>
       <c r="D7">
         <f t="shared" si="4"/>
-        <v>73.972000000000008</v>
+        <v>99.116249999999994</v>
       </c>
       <c r="G7">
         <f>AVERAGE(G3:G6)</f>
-        <v>71.344999999999999</v>
+        <v>99.254999999999995</v>
       </c>
       <c r="H7">
         <f t="shared" ref="H7:X7" si="5">AVERAGE(H3:H6)</f>
-        <v>76.906750000000002</v>
+        <v>98.938999999999993</v>
       </c>
       <c r="I7">
         <f t="shared" si="5"/>
-        <v>74.013999999999996</v>
+        <v>99.096249999999998</v>
       </c>
       <c r="L7">
         <f t="shared" si="5"/>
-        <v>71.310500000000005</v>
+        <v>99.154250000000005</v>
       </c>
       <c r="M7">
         <f t="shared" si="5"/>
-        <v>77.038000000000011</v>
+        <v>98.806250000000006</v>
       </c>
       <c r="N7">
         <f t="shared" si="5"/>
-        <v>74.054749999999999</v>
+        <v>98.978749999999991</v>
       </c>
       <c r="Q7">
         <f t="shared" si="5"/>
-        <v>71.790000000000006</v>
+        <v>98.9285</v>
       </c>
       <c r="R7">
         <f t="shared" si="5"/>
-        <v>77.832750000000004</v>
+        <v>98.573000000000008</v>
       </c>
       <c r="S7">
         <f t="shared" si="5"/>
-        <v>74.680000000000007</v>
+        <v>98.749249999999989</v>
       </c>
       <c r="V7">
         <f t="shared" si="5"/>
-        <v>71.216999999999999</v>
+        <v>98.28</v>
       </c>
       <c r="W7">
         <f t="shared" si="5"/>
-        <v>77.298000000000002</v>
+        <v>98.0595</v>
       </c>
       <c r="X7">
         <f t="shared" si="5"/>
-        <v>74.121499999999997</v>
+        <v>98.168750000000003</v>
       </c>
       <c r="Z7">
         <f t="shared" si="1"/>
-        <v>71.790000000000006</v>
+        <v>99.269499999999994</v>
       </c>
       <c r="AA7">
         <f t="shared" si="2"/>
-        <v>77.832750000000004</v>
+        <v>98.964750000000009</v>
       </c>
       <c r="AB7">
         <f t="shared" si="3"/>
+        <v>99.116249999999994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" t="s">
+        <v>24</v>
+      </c>
+      <c r="P10" t="s">
+        <v>37</v>
+      </c>
+      <c r="U10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" t="s">
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
+        <v>1</v>
+      </c>
+      <c r="M11" t="s">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>3</v>
+      </c>
+      <c r="P11" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>1</v>
+      </c>
+      <c r="R11" t="s">
+        <v>2</v>
+      </c>
+      <c r="S11" t="s">
+        <v>3</v>
+      </c>
+      <c r="U11" t="s">
+        <v>0</v>
+      </c>
+      <c r="V11" t="s">
+        <v>1</v>
+      </c>
+      <c r="W11" t="s">
+        <v>2</v>
+      </c>
+      <c r="X11" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>70.099000000000004</v>
+      </c>
+      <c r="C12">
+        <v>74.096999999999994</v>
+      </c>
+      <c r="D12">
+        <v>72.043000000000006</v>
+      </c>
+      <c r="F12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>70.423000000000002</v>
+      </c>
+      <c r="H12">
+        <v>74.518000000000001</v>
+      </c>
+      <c r="I12">
+        <v>72.412999999999997</v>
+      </c>
+      <c r="K12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12">
+        <v>70.888999999999996</v>
+      </c>
+      <c r="M12">
+        <v>74.974999999999994</v>
+      </c>
+      <c r="N12">
+        <v>72.875</v>
+      </c>
+      <c r="P12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q12">
+        <v>70.388000000000005</v>
+      </c>
+      <c r="R12">
+        <v>75.099000000000004</v>
+      </c>
+      <c r="S12">
+        <v>72.667000000000002</v>
+      </c>
+      <c r="U12" t="s">
+        <v>4</v>
+      </c>
+      <c r="V12">
+        <v>69.944999999999993</v>
+      </c>
+      <c r="W12">
+        <v>74.504999999999995</v>
+      </c>
+      <c r="X12">
+        <v>72.153000000000006</v>
+      </c>
+      <c r="Z12">
+        <f>MAX(B12, G12,L12,Q12,V12)</f>
+        <v>70.888999999999996</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" ref="AA12:AA16" si="6">MAX(C12, H12,M12,R12,W12)</f>
+        <v>75.099000000000004</v>
+      </c>
+      <c r="AB12">
+        <f t="shared" ref="AB12:AB16" si="7">MAX(D12, I12,N12,S12,X12)</f>
+        <v>72.875</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>68.537999999999997</v>
+      </c>
+      <c r="C13">
+        <v>72.92</v>
+      </c>
+      <c r="D13">
+        <v>70.661000000000001</v>
+      </c>
+      <c r="F13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>69.998000000000005</v>
+      </c>
+      <c r="H13">
+        <v>73.808000000000007</v>
+      </c>
+      <c r="I13">
+        <v>71.852999999999994</v>
+      </c>
+      <c r="K13" t="s">
+        <v>5</v>
+      </c>
+      <c r="L13">
+        <v>69.948999999999998</v>
+      </c>
+      <c r="M13">
+        <v>73.808000000000007</v>
+      </c>
+      <c r="N13">
+        <v>71.826999999999998</v>
+      </c>
+      <c r="P13" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q13">
+        <v>71.421000000000006</v>
+      </c>
+      <c r="R13">
+        <v>75.256</v>
+      </c>
+      <c r="S13">
+        <v>73.289000000000001</v>
+      </c>
+      <c r="U13" t="s">
+        <v>5</v>
+      </c>
+      <c r="V13">
+        <v>70.748999999999995</v>
+      </c>
+      <c r="W13">
+        <v>74.367999999999995</v>
+      </c>
+      <c r="X13">
+        <v>72.513999999999996</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" ref="Z13:Z16" si="8">MAX(B13, G13,L13,Q13,V13)</f>
+        <v>71.421000000000006</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="6"/>
+        <v>75.256</v>
+      </c>
+      <c r="AB13">
+        <f t="shared" si="7"/>
+        <v>73.289000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>71.840999999999994</v>
+      </c>
+      <c r="C14">
+        <v>79.055000000000007</v>
+      </c>
+      <c r="D14">
+        <v>75.275000000000006</v>
+      </c>
+      <c r="F14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14">
+        <v>71.546999999999997</v>
+      </c>
+      <c r="H14">
+        <v>79.108999999999995</v>
+      </c>
+      <c r="I14">
+        <v>75.138000000000005</v>
+      </c>
+      <c r="K14" t="s">
+        <v>7</v>
+      </c>
+      <c r="L14">
+        <v>71.52</v>
+      </c>
+      <c r="M14">
+        <v>79.355999999999995</v>
+      </c>
+      <c r="N14">
+        <v>75.234999999999999</v>
+      </c>
+      <c r="P14" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q14">
+        <v>71.652000000000001</v>
+      </c>
+      <c r="R14">
+        <v>79.248999999999995</v>
+      </c>
+      <c r="S14">
+        <v>75.259</v>
+      </c>
+      <c r="U14" t="s">
+        <v>7</v>
+      </c>
+      <c r="V14">
+        <v>71.009</v>
+      </c>
+      <c r="W14">
+        <v>78.668000000000006</v>
+      </c>
+      <c r="X14">
+        <v>74.643000000000001</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="8"/>
+        <v>71.840999999999994</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="6"/>
+        <v>79.355999999999995</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" si="7"/>
+        <v>75.275000000000006</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>74.501999999999995</v>
+      </c>
+      <c r="C15">
+        <v>81.641999999999996</v>
+      </c>
+      <c r="D15">
+        <v>77.909000000000006</v>
+      </c>
+      <c r="F15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15">
+        <v>73.412000000000006</v>
+      </c>
+      <c r="H15">
+        <v>80.191999999999993</v>
+      </c>
+      <c r="I15">
+        <v>76.652000000000001</v>
+      </c>
+      <c r="K15" t="s">
+        <v>6</v>
+      </c>
+      <c r="L15">
+        <v>72.884</v>
+      </c>
+      <c r="M15">
+        <v>80.013000000000005</v>
+      </c>
+      <c r="N15">
+        <v>76.281999999999996</v>
+      </c>
+      <c r="P15" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q15">
+        <v>73.698999999999998</v>
+      </c>
+      <c r="R15">
+        <v>81.727000000000004</v>
+      </c>
+      <c r="S15">
+        <v>77.504999999999995</v>
+      </c>
+      <c r="U15" t="s">
+        <v>6</v>
+      </c>
+      <c r="V15">
+        <v>73.165000000000006</v>
+      </c>
+      <c r="W15">
+        <v>81.650999999999996</v>
+      </c>
+      <c r="X15">
+        <v>77.176000000000002</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="8"/>
+        <v>74.501999999999995</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="6"/>
+        <v>81.727000000000004</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="7"/>
+        <v>77.909000000000006</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <f>AVERAGE(B12:B15)</f>
+        <v>71.245000000000005</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ref="C16:X16" si="9">AVERAGE(C12:C15)</f>
+        <v>76.9285</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="9"/>
+        <v>73.972000000000008</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="9"/>
+        <v>71.344999999999999</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="9"/>
+        <v>76.906750000000002</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="9"/>
+        <v>74.013999999999996</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="9"/>
+        <v>71.310500000000005</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="9"/>
+        <v>77.038000000000011</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="9"/>
+        <v>74.054749999999999</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="9"/>
+        <v>71.790000000000006</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="9"/>
+        <v>77.832750000000004</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="9"/>
+        <v>74.680000000000007</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="9"/>
+        <v>71.216999999999999</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="9"/>
+        <v>77.298000000000002</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="9"/>
+        <v>74.121499999999997</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="8"/>
+        <v>71.790000000000006</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="6"/>
+        <v>77.832750000000004</v>
+      </c>
+      <c r="AB16">
+        <f t="shared" si="7"/>
         <v>74.680000000000007</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:X3">
-    <cfRule type="cellIs" dxfId="108" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="15" operator="equal">
       <formula>$AB$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="16" operator="equal">
       <formula>$AA$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="17" operator="equal">
       <formula>$Z$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:X4">
-    <cfRule type="cellIs" dxfId="105" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="11" operator="equal">
       <formula>$AB$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="12" operator="equal">
       <formula>$AA$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="13" operator="equal">
       <formula>$Z$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:X5">
-    <cfRule type="cellIs" dxfId="102" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="8" operator="equal">
       <formula>$AB$5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="9" operator="equal">
       <formula>$AA$5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="10" operator="equal">
       <formula>$Z$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:X6">
-    <cfRule type="cellIs" dxfId="99" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="5" operator="equal">
       <formula>$AB$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="6" operator="equal">
       <formula>$AA$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="7" operator="equal">
       <formula>$Z$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:X7">
-    <cfRule type="cellIs" dxfId="96" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="2" operator="equal">
       <formula>$AB$7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="3" operator="equal">
       <formula>$AA$7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="4" operator="equal">
       <formula>$Z$7</formula>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12:AB16">
+    <cfRule type="duplicateValues" dxfId="31" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3631,13 +8699,13 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="K1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -3939,57 +9007,57 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:N3">
-    <cfRule type="cellIs" dxfId="93" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="634" priority="13" operator="equal">
       <formula>$R$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="633" priority="14" operator="equal">
       <formula>$Q$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="632" priority="15" operator="equal">
       <formula>$P$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:N4">
-    <cfRule type="cellIs" dxfId="90" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="631" priority="10" operator="equal">
       <formula>$R$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="630" priority="11" operator="equal">
       <formula>$Q$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="629" priority="12" operator="equal">
       <formula>$P$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:N5">
-    <cfRule type="cellIs" dxfId="87" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="628" priority="7" operator="equal">
       <formula>$R$5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="627" priority="8" operator="equal">
       <formula>$Q$5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="626" priority="9" operator="equal">
       <formula>$P$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:N6">
-    <cfRule type="cellIs" dxfId="84" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="625" priority="4" operator="equal">
       <formula>$R$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="624" priority="5" operator="equal">
       <formula>$Q$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="623" priority="6" operator="equal">
       <formula>$P$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:N7">
-    <cfRule type="cellIs" dxfId="81" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="622" priority="1" operator="equal">
       <formula>$R$7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="621" priority="2" operator="equal">
       <formula>$Q$7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="620" priority="3" operator="equal">
       <formula>$P$7</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4000,32 +9068,32 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61E40C23-9221-4CE4-B5DB-C293D05C16D4}">
-  <dimension ref="A1:AG7"/>
+  <dimension ref="A1:AG15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:I15"/>
+      <selection activeCell="AC13" sqref="A13:AC15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z1" t="s">
         <v>21</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" t="s">
-        <v>14</v>
-      </c>
-      <c r="U1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
@@ -4116,85 +9184,85 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>69.947000000000003</v>
+        <v>98.462000000000003</v>
       </c>
       <c r="C3">
-        <v>75.433000000000007</v>
+        <v>98.340999999999994</v>
       </c>
       <c r="D3">
-        <v>72.587000000000003</v>
+        <v>98.400999999999996</v>
       </c>
       <c r="F3" t="s">
         <v>4</v>
       </c>
       <c r="G3">
-        <v>70.59</v>
+        <v>98.399000000000001</v>
       </c>
       <c r="H3">
-        <v>75.977000000000004</v>
+        <v>98.197000000000003</v>
       </c>
       <c r="I3">
-        <v>73.183999999999997</v>
+        <v>98.298000000000002</v>
       </c>
       <c r="K3" t="s">
         <v>4</v>
       </c>
       <c r="L3">
-        <v>70.106999999999999</v>
+        <v>97.147000000000006</v>
       </c>
       <c r="M3">
-        <v>75.951999999999998</v>
+        <v>96.947999999999993</v>
       </c>
       <c r="N3">
-        <v>72.912999999999997</v>
+        <v>97.046999999999997</v>
       </c>
       <c r="P3" t="s">
         <v>4</v>
       </c>
       <c r="Q3">
-        <v>69.531999999999996</v>
+        <v>94.649000000000001</v>
       </c>
       <c r="R3">
-        <v>75.234999999999999</v>
+        <v>93.834000000000003</v>
       </c>
       <c r="S3">
-        <v>72.271000000000001</v>
+        <v>94.24</v>
       </c>
       <c r="U3" t="s">
         <v>4</v>
       </c>
       <c r="V3">
-        <v>65.36</v>
+        <v>89.43</v>
       </c>
       <c r="W3">
-        <v>71.561000000000007</v>
+        <v>88.733999999999995</v>
       </c>
       <c r="X3">
-        <v>68.319999999999993</v>
+        <v>89.081000000000003</v>
       </c>
       <c r="Z3" t="s">
         <v>4</v>
       </c>
       <c r="AA3">
-        <v>57.13</v>
+        <v>80.143000000000001</v>
       </c>
       <c r="AB3">
-        <v>63.929000000000002</v>
+        <v>80.355999999999995</v>
       </c>
       <c r="AC3">
-        <v>60.338999999999999</v>
+        <v>80.25</v>
       </c>
       <c r="AE3">
-        <f>MAX(G3,L3,Q3,V3,AA3)</f>
-        <v>70.59</v>
+        <f>MAX(B3,G3,L3,Q3,V3,AA3)</f>
+        <v>98.462000000000003</v>
       </c>
       <c r="AF3">
-        <f t="shared" ref="AF3:AG7" si="0">MAX(H3,M3,R3,W3,AB3)</f>
-        <v>75.977000000000004</v>
+        <f t="shared" ref="AF3:AG3" si="0">MAX(C3,H3,M3,R3,W3,AB3)</f>
+        <v>98.340999999999994</v>
       </c>
       <c r="AG3">
         <f t="shared" si="0"/>
-        <v>73.183999999999997</v>
+        <v>98.400999999999996</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
@@ -4202,85 +9270,85 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>71.561000000000007</v>
+        <v>99.96</v>
       </c>
       <c r="C4">
-        <v>74.95</v>
+        <v>99.921000000000006</v>
       </c>
       <c r="D4">
-        <v>73.215999999999994</v>
+        <v>99.941000000000003</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
       </c>
       <c r="G4">
-        <v>71.203999999999994</v>
+        <v>99.921000000000006</v>
       </c>
       <c r="H4">
-        <v>75.69</v>
+        <v>99.96</v>
       </c>
       <c r="I4">
-        <v>73.378</v>
+        <v>99.941000000000003</v>
       </c>
       <c r="K4" t="s">
         <v>5</v>
       </c>
       <c r="L4">
-        <v>71.245999999999995</v>
+        <v>99.96</v>
       </c>
       <c r="M4">
-        <v>75.816999999999993</v>
+        <v>99.921000000000006</v>
       </c>
       <c r="N4">
-        <v>73.459999999999994</v>
+        <v>99.941000000000003</v>
       </c>
       <c r="P4" t="s">
         <v>5</v>
       </c>
       <c r="Q4">
-        <v>69.614999999999995</v>
+        <v>99.212000000000003</v>
       </c>
       <c r="R4">
-        <v>74.781000000000006</v>
+        <v>99.564999999999998</v>
       </c>
       <c r="S4">
-        <v>72.105999999999995</v>
+        <v>99.388000000000005</v>
       </c>
       <c r="U4" t="s">
         <v>5</v>
       </c>
       <c r="V4">
-        <v>70.040999999999997</v>
+        <v>96.293000000000006</v>
       </c>
       <c r="W4">
-        <v>76.134</v>
+        <v>97.549000000000007</v>
       </c>
       <c r="X4">
-        <v>72.959999999999994</v>
+        <v>96.917000000000002</v>
       </c>
       <c r="Z4" t="s">
         <v>5</v>
       </c>
       <c r="AA4">
-        <v>72.974999999999994</v>
+        <v>88.781000000000006</v>
       </c>
       <c r="AB4">
-        <v>75.69</v>
+        <v>90.710999999999999</v>
       </c>
       <c r="AC4">
-        <v>74.307000000000002</v>
+        <v>89.736000000000004</v>
       </c>
       <c r="AE4">
-        <f t="shared" ref="AE4:AE7" si="1">MAX(G4,L4,Q4,V4,AA4)</f>
-        <v>72.974999999999994</v>
+        <f t="shared" ref="AE4:AE7" si="1">MAX(B4,G4,L4,Q4,V4,AA4)</f>
+        <v>99.96</v>
       </c>
       <c r="AF4">
-        <f t="shared" si="0"/>
-        <v>76.134</v>
+        <f t="shared" ref="AF4:AF7" si="2">MAX(C4,H4,M4,R4,W4,AB4)</f>
+        <v>99.96</v>
       </c>
       <c r="AG4">
-        <f t="shared" si="0"/>
-        <v>74.307000000000002</v>
+        <f t="shared" ref="AG4:AG7" si="3">MAX(D4,I4,N4,S4,X4,AC4)</f>
+        <v>99.941000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
@@ -4288,85 +9356,85 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>71.304000000000002</v>
+        <v>99.921999999999997</v>
       </c>
       <c r="C5">
-        <v>78.28</v>
+        <v>99.953000000000003</v>
       </c>
       <c r="D5">
-        <v>74.629000000000005</v>
+        <v>99.938000000000002</v>
       </c>
       <c r="F5" t="s">
         <v>7</v>
       </c>
       <c r="G5">
-        <v>70.649000000000001</v>
+        <v>99.813999999999993</v>
       </c>
       <c r="H5">
-        <v>78.344999999999999</v>
+        <v>99.86</v>
       </c>
       <c r="I5">
-        <v>74.298000000000002</v>
+        <v>99.837000000000003</v>
       </c>
       <c r="K5" t="s">
         <v>7</v>
       </c>
       <c r="L5">
-        <v>70.673000000000002</v>
+        <v>98.927999999999997</v>
       </c>
       <c r="M5">
-        <v>78.484999999999999</v>
+        <v>98.897000000000006</v>
       </c>
       <c r="N5">
-        <v>74.373999999999995</v>
+        <v>98.912999999999997</v>
       </c>
       <c r="P5" t="s">
         <v>7</v>
       </c>
       <c r="Q5">
-        <v>70.034000000000006</v>
+        <v>95.718000000000004</v>
       </c>
       <c r="R5">
-        <v>77.376000000000005</v>
+        <v>95.822000000000003</v>
       </c>
       <c r="S5">
-        <v>73.522000000000006</v>
+        <v>95.77</v>
       </c>
       <c r="U5" t="s">
         <v>7</v>
       </c>
       <c r="V5">
-        <v>65.498999999999995</v>
+        <v>88.831000000000003</v>
       </c>
       <c r="W5">
-        <v>74.233000000000004</v>
+        <v>89.671999999999997</v>
       </c>
       <c r="X5">
-        <v>69.593000000000004</v>
+        <v>89.25</v>
       </c>
       <c r="Z5" t="s">
         <v>7</v>
       </c>
       <c r="AA5">
-        <v>60.767000000000003</v>
+        <v>81.887</v>
       </c>
       <c r="AB5">
-        <v>68.581999999999994</v>
+        <v>82.078000000000003</v>
       </c>
       <c r="AC5">
-        <v>64.438000000000002</v>
+        <v>81.981999999999999</v>
       </c>
       <c r="AE5">
         <f t="shared" si="1"/>
-        <v>70.673000000000002</v>
+        <v>99.921999999999997</v>
       </c>
       <c r="AF5">
-        <f t="shared" si="0"/>
-        <v>78.484999999999999</v>
+        <f t="shared" si="2"/>
+        <v>99.953000000000003</v>
       </c>
       <c r="AG5">
-        <f t="shared" si="0"/>
-        <v>74.373999999999995</v>
+        <f t="shared" si="3"/>
+        <v>99.938000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
@@ -4374,239 +9442,816 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>74.394999999999996</v>
+        <v>99.63</v>
       </c>
       <c r="C6">
-        <v>80.748000000000005</v>
+        <v>99.497</v>
       </c>
       <c r="D6">
-        <v>77.441000000000003</v>
+        <v>99.563000000000002</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
       </c>
       <c r="G6">
-        <v>74.822999999999993</v>
+        <v>99.408000000000001</v>
       </c>
       <c r="H6">
-        <v>81.471999999999994</v>
+        <v>99.29</v>
       </c>
       <c r="I6">
-        <v>78.006</v>
+        <v>99.349000000000004</v>
       </c>
       <c r="K6" t="s">
         <v>6</v>
       </c>
       <c r="L6">
-        <v>73.460999999999999</v>
+        <v>98.67</v>
       </c>
       <c r="M6">
-        <v>80.418000000000006</v>
+        <v>98.802000000000007</v>
       </c>
       <c r="N6">
-        <v>76.781999999999996</v>
+        <v>98.736000000000004</v>
       </c>
       <c r="P6" t="s">
         <v>6</v>
       </c>
       <c r="Q6">
-        <v>72.597999999999999</v>
+        <v>96.736000000000004</v>
       </c>
       <c r="R6">
-        <v>79.814999999999998</v>
+        <v>96.879000000000005</v>
       </c>
       <c r="S6">
-        <v>76.036000000000001</v>
+        <v>96.807000000000002</v>
       </c>
       <c r="U6" t="s">
         <v>6</v>
       </c>
       <c r="V6">
-        <v>69.421000000000006</v>
+        <v>91.054000000000002</v>
       </c>
       <c r="W6">
-        <v>77.903999999999996</v>
+        <v>91.997</v>
       </c>
       <c r="X6">
-        <v>73.418999999999997</v>
+        <v>91.522999999999996</v>
       </c>
       <c r="Z6" t="s">
         <v>6</v>
       </c>
       <c r="AA6">
-        <v>63.774000000000001</v>
+        <v>83.435000000000002</v>
       </c>
       <c r="AB6">
-        <v>72.725999999999999</v>
+        <v>85.385000000000005</v>
       </c>
       <c r="AC6">
-        <v>67.956999999999994</v>
+        <v>84.397999999999996</v>
       </c>
       <c r="AE6">
         <f t="shared" si="1"/>
-        <v>74.822999999999993</v>
+        <v>99.63</v>
       </c>
       <c r="AF6">
-        <f t="shared" si="0"/>
-        <v>81.471999999999994</v>
+        <f t="shared" si="2"/>
+        <v>99.497</v>
       </c>
       <c r="AG6">
-        <f t="shared" si="0"/>
-        <v>78.006</v>
+        <f t="shared" si="3"/>
+        <v>99.563000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B7">
         <f>AVERAGE(B3:B6)</f>
-        <v>71.801749999999998</v>
+        <v>99.493499999999997</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C7:D7" si="2">AVERAGE(C3:C6)</f>
-        <v>77.35275</v>
+        <f t="shared" ref="C7:D7" si="4">AVERAGE(C3:C6)</f>
+        <v>99.428000000000011</v>
       </c>
       <c r="D7">
-        <f t="shared" si="2"/>
-        <v>74.468250000000012</v>
+        <f t="shared" si="4"/>
+        <v>99.46074999999999</v>
       </c>
       <c r="G7">
         <f>AVERAGE(G3:G6)</f>
-        <v>71.816499999999991</v>
+        <v>99.385500000000008</v>
       </c>
       <c r="H7">
-        <f t="shared" ref="H7:AC7" si="3">AVERAGE(H3:H6)</f>
-        <v>77.870999999999995</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="3"/>
-        <v>74.716499999999996</v>
+        <f t="shared" ref="H7:AC7" si="5">AVERAGE(H3:H6)</f>
+        <v>99.326750000000004</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="5"/>
+        <v>99.356250000000003</v>
       </c>
       <c r="L7">
-        <f t="shared" si="3"/>
-        <v>71.371750000000006</v>
+        <f t="shared" si="5"/>
+        <v>98.676249999999996</v>
       </c>
       <c r="M7">
-        <f t="shared" si="3"/>
-        <v>77.668000000000006</v>
+        <f t="shared" si="5"/>
+        <v>98.64200000000001</v>
       </c>
       <c r="N7">
-        <f t="shared" si="3"/>
-        <v>74.382249999999999</v>
+        <f t="shared" si="5"/>
+        <v>98.65925</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="3"/>
-        <v>70.444749999999999</v>
+        <f t="shared" si="5"/>
+        <v>96.578749999999999</v>
       </c>
       <c r="R7">
-        <f t="shared" si="3"/>
-        <v>76.801749999999998</v>
+        <f t="shared" si="5"/>
+        <v>96.525000000000006</v>
       </c>
       <c r="S7">
-        <f t="shared" si="3"/>
-        <v>73.483750000000001</v>
+        <f t="shared" si="5"/>
+        <v>96.551249999999996</v>
       </c>
       <c r="V7">
-        <f t="shared" si="3"/>
-        <v>67.580250000000007</v>
+        <f t="shared" si="5"/>
+        <v>91.402000000000015</v>
       </c>
       <c r="W7">
-        <f t="shared" si="3"/>
-        <v>74.957999999999998</v>
+        <f t="shared" si="5"/>
+        <v>91.988000000000014</v>
       </c>
       <c r="X7">
-        <f t="shared" si="3"/>
-        <v>71.072999999999993</v>
+        <f t="shared" si="5"/>
+        <v>91.69274999999999</v>
       </c>
       <c r="AA7">
-        <f t="shared" si="3"/>
-        <v>63.661499999999997</v>
+        <f t="shared" si="5"/>
+        <v>83.561499999999995</v>
       </c>
       <c r="AB7">
-        <f t="shared" si="3"/>
-        <v>70.231750000000005</v>
+        <f t="shared" si="5"/>
+        <v>84.632500000000007</v>
       </c>
       <c r="AC7">
-        <f t="shared" si="3"/>
-        <v>66.760249999999999</v>
+        <f t="shared" si="5"/>
+        <v>84.091499999999996</v>
       </c>
       <c r="AE7">
         <f t="shared" si="1"/>
+        <v>99.493499999999997</v>
+      </c>
+      <c r="AF7">
+        <f t="shared" si="2"/>
+        <v>99.428000000000011</v>
+      </c>
+      <c r="AG7">
+        <f t="shared" si="3"/>
+        <v>99.46074999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" t="s">
+        <v>33</v>
+      </c>
+      <c r="P9" t="s">
+        <v>34</v>
+      </c>
+      <c r="U9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" t="s">
+        <v>0</v>
+      </c>
+      <c r="L10" t="s">
+        <v>1</v>
+      </c>
+      <c r="M10" t="s">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>1</v>
+      </c>
+      <c r="R10" t="s">
+        <v>2</v>
+      </c>
+      <c r="S10" t="s">
+        <v>3</v>
+      </c>
+      <c r="U10" t="s">
+        <v>0</v>
+      </c>
+      <c r="V10" t="s">
+        <v>1</v>
+      </c>
+      <c r="W10" t="s">
+        <v>2</v>
+      </c>
+      <c r="X10" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>69.947000000000003</v>
+      </c>
+      <c r="C11">
+        <v>75.433000000000007</v>
+      </c>
+      <c r="D11">
+        <v>72.587000000000003</v>
+      </c>
+      <c r="F11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>70.59</v>
+      </c>
+      <c r="H11">
+        <v>75.977000000000004</v>
+      </c>
+      <c r="I11">
+        <v>73.183999999999997</v>
+      </c>
+      <c r="K11" t="s">
+        <v>4</v>
+      </c>
+      <c r="L11">
+        <v>70.106999999999999</v>
+      </c>
+      <c r="M11">
+        <v>75.951999999999998</v>
+      </c>
+      <c r="N11">
+        <v>72.912999999999997</v>
+      </c>
+      <c r="P11" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q11">
+        <v>69.531999999999996</v>
+      </c>
+      <c r="R11">
+        <v>75.234999999999999</v>
+      </c>
+      <c r="S11">
+        <v>72.271000000000001</v>
+      </c>
+      <c r="U11" t="s">
+        <v>4</v>
+      </c>
+      <c r="V11">
+        <v>65.36</v>
+      </c>
+      <c r="W11">
+        <v>71.561000000000007</v>
+      </c>
+      <c r="X11">
+        <v>68.319999999999993</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA11">
+        <v>57.13</v>
+      </c>
+      <c r="AB11">
+        <v>63.929000000000002</v>
+      </c>
+      <c r="AC11">
+        <v>60.338999999999999</v>
+      </c>
+      <c r="AE11">
+        <f>MAX(B11,G11,L11,Q11,V11,AA11)</f>
+        <v>70.59</v>
+      </c>
+      <c r="AF11">
+        <f t="shared" ref="AF11:AF15" si="6">MAX(C11,H11,M11,R11,W11,AB11)</f>
+        <v>75.977000000000004</v>
+      </c>
+      <c r="AG11">
+        <f t="shared" ref="AG11:AG15" si="7">MAX(D11,I11,N11,S11,X11,AC11)</f>
+        <v>73.183999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>71.561000000000007</v>
+      </c>
+      <c r="C12">
+        <v>74.95</v>
+      </c>
+      <c r="D12">
+        <v>73.215999999999994</v>
+      </c>
+      <c r="F12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12">
+        <v>71.203999999999994</v>
+      </c>
+      <c r="H12">
+        <v>75.69</v>
+      </c>
+      <c r="I12">
+        <v>73.378</v>
+      </c>
+      <c r="K12" t="s">
+        <v>5</v>
+      </c>
+      <c r="L12">
+        <v>71.245999999999995</v>
+      </c>
+      <c r="M12">
+        <v>75.816999999999993</v>
+      </c>
+      <c r="N12">
+        <v>73.459999999999994</v>
+      </c>
+      <c r="P12" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q12">
+        <v>69.614999999999995</v>
+      </c>
+      <c r="R12">
+        <v>74.781000000000006</v>
+      </c>
+      <c r="S12">
+        <v>72.105999999999995</v>
+      </c>
+      <c r="U12" t="s">
+        <v>5</v>
+      </c>
+      <c r="V12">
+        <v>70.040999999999997</v>
+      </c>
+      <c r="W12">
+        <v>76.134</v>
+      </c>
+      <c r="X12">
+        <v>72.959999999999994</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA12">
+        <v>72.974999999999994</v>
+      </c>
+      <c r="AB12">
+        <v>75.69</v>
+      </c>
+      <c r="AC12">
+        <v>74.307000000000002</v>
+      </c>
+      <c r="AE12">
+        <f t="shared" ref="AE12:AE15" si="8">MAX(B12,G12,L12,Q12,V12,AA12)</f>
+        <v>72.974999999999994</v>
+      </c>
+      <c r="AF12">
+        <f t="shared" si="6"/>
+        <v>76.134</v>
+      </c>
+      <c r="AG12">
+        <f t="shared" si="7"/>
+        <v>74.307000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>71.304000000000002</v>
+      </c>
+      <c r="C13">
+        <v>78.28</v>
+      </c>
+      <c r="D13">
+        <v>74.629000000000005</v>
+      </c>
+      <c r="F13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13">
+        <v>70.649000000000001</v>
+      </c>
+      <c r="H13">
+        <v>78.344999999999999</v>
+      </c>
+      <c r="I13">
+        <v>74.298000000000002</v>
+      </c>
+      <c r="K13" t="s">
+        <v>7</v>
+      </c>
+      <c r="L13">
+        <v>70.673000000000002</v>
+      </c>
+      <c r="M13">
+        <v>78.484999999999999</v>
+      </c>
+      <c r="N13">
+        <v>74.373999999999995</v>
+      </c>
+      <c r="P13" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q13">
+        <v>70.034000000000006</v>
+      </c>
+      <c r="R13">
+        <v>77.376000000000005</v>
+      </c>
+      <c r="S13">
+        <v>73.522000000000006</v>
+      </c>
+      <c r="U13" t="s">
+        <v>7</v>
+      </c>
+      <c r="V13">
+        <v>65.498999999999995</v>
+      </c>
+      <c r="W13">
+        <v>74.233000000000004</v>
+      </c>
+      <c r="X13">
+        <v>69.593000000000004</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA13">
+        <v>60.767000000000003</v>
+      </c>
+      <c r="AB13">
+        <v>68.581999999999994</v>
+      </c>
+      <c r="AC13">
+        <v>64.438000000000002</v>
+      </c>
+      <c r="AE13">
+        <f t="shared" si="8"/>
+        <v>71.304000000000002</v>
+      </c>
+      <c r="AF13">
+        <f t="shared" si="6"/>
+        <v>78.484999999999999</v>
+      </c>
+      <c r="AG13">
+        <f t="shared" si="7"/>
+        <v>74.629000000000005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>74.394999999999996</v>
+      </c>
+      <c r="C14">
+        <v>80.748000000000005</v>
+      </c>
+      <c r="D14">
+        <v>77.441000000000003</v>
+      </c>
+      <c r="F14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14">
+        <v>74.822999999999993</v>
+      </c>
+      <c r="H14">
+        <v>81.471999999999994</v>
+      </c>
+      <c r="I14">
+        <v>78.006</v>
+      </c>
+      <c r="K14" t="s">
+        <v>6</v>
+      </c>
+      <c r="L14">
+        <v>73.460999999999999</v>
+      </c>
+      <c r="M14">
+        <v>80.418000000000006</v>
+      </c>
+      <c r="N14">
+        <v>76.781999999999996</v>
+      </c>
+      <c r="P14" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q14">
+        <v>72.597999999999999</v>
+      </c>
+      <c r="R14">
+        <v>79.814999999999998</v>
+      </c>
+      <c r="S14">
+        <v>76.036000000000001</v>
+      </c>
+      <c r="U14" t="s">
+        <v>6</v>
+      </c>
+      <c r="V14">
+        <v>69.421000000000006</v>
+      </c>
+      <c r="W14">
+        <v>77.903999999999996</v>
+      </c>
+      <c r="X14">
+        <v>73.418999999999997</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA14">
+        <v>63.774000000000001</v>
+      </c>
+      <c r="AB14">
+        <v>72.725999999999999</v>
+      </c>
+      <c r="AC14">
+        <v>67.956999999999994</v>
+      </c>
+      <c r="AE14">
+        <f t="shared" si="8"/>
+        <v>74.822999999999993</v>
+      </c>
+      <c r="AF14">
+        <f t="shared" si="6"/>
+        <v>81.471999999999994</v>
+      </c>
+      <c r="AG14">
+        <f t="shared" si="7"/>
+        <v>78.006</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <f>AVERAGE(B11:B14)</f>
+        <v>71.801749999999998</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ref="C15:AC15" si="9">AVERAGE(C11:C14)</f>
+        <v>77.35275</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="9"/>
+        <v>74.468250000000012</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="9"/>
         <v>71.816499999999991</v>
       </c>
-      <c r="AF7">
-        <f t="shared" si="0"/>
+      <c r="H15">
+        <f t="shared" si="9"/>
         <v>77.870999999999995</v>
       </c>
-      <c r="AG7">
-        <f t="shared" si="0"/>
+      <c r="I15">
+        <f t="shared" si="9"/>
+        <v>74.716499999999996</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="9"/>
+        <v>71.371750000000006</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="9"/>
+        <v>77.668000000000006</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="9"/>
+        <v>74.382249999999999</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="9"/>
+        <v>70.444749999999999</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="9"/>
+        <v>76.801749999999998</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="9"/>
+        <v>73.483750000000001</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="9"/>
+        <v>67.580250000000007</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="9"/>
+        <v>74.957999999999998</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="9"/>
+        <v>71.072999999999993</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="9"/>
+        <v>63.661499999999997</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="9"/>
+        <v>70.231750000000005</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" si="9"/>
+        <v>66.760249999999999</v>
+      </c>
+      <c r="AE15">
+        <f t="shared" si="8"/>
+        <v>71.816499999999991</v>
+      </c>
+      <c r="AF15">
+        <f t="shared" si="6"/>
+        <v>77.870999999999995</v>
+      </c>
+      <c r="AG15">
+        <f t="shared" si="7"/>
         <v>74.716499999999996</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="F3:AC3">
-    <cfRule type="cellIs" dxfId="78" priority="15" operator="equal">
+  <conditionalFormatting sqref="B3:AC3">
+    <cfRule type="cellIs" dxfId="120" priority="30" operator="equal">
+      <formula>$AE$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="119" priority="29" operator="equal">
+      <formula>$AF$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="118" priority="28" operator="equal">
       <formula>$AG$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="16" operator="equal">
-      <formula>$AF$3</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:AC4">
+    <cfRule type="cellIs" dxfId="117" priority="27" operator="equal">
+      <formula>$AE$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="17" operator="equal">
-      <formula>$AE$3</formula>
+    <cfRule type="cellIs" dxfId="116" priority="26" operator="equal">
+      <formula>$AF$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="115" priority="25" operator="equal">
+      <formula>$AG$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4:AC4">
-    <cfRule type="cellIs" dxfId="75" priority="11" operator="equal">
-      <formula>$AG$4</formula>
+  <conditionalFormatting sqref="B5:AC5">
+    <cfRule type="cellIs" dxfId="114" priority="24" operator="equal">
+      <formula>$AE$5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="12" operator="equal">
-      <formula>$AG$4</formula>
+    <cfRule type="cellIs" dxfId="113" priority="23" operator="equal">
+      <formula>$AF$5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="13" operator="equal">
-      <formula>$AF$4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="14" operator="equal">
-      <formula>$AE$4</formula>
+    <cfRule type="cellIs" dxfId="112" priority="22" operator="equal">
+      <formula>$AG$5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5:AC5">
-    <cfRule type="cellIs" dxfId="71" priority="8" operator="equal">
-      <formula>$AG$5</formula>
+  <conditionalFormatting sqref="B6:AC6">
+    <cfRule type="cellIs" dxfId="111" priority="21" operator="equal">
+      <formula>$AE$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="9" operator="equal">
-      <formula>$AF$5</formula>
+    <cfRule type="cellIs" dxfId="110" priority="20" operator="equal">
+      <formula>$AF$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="10" operator="equal">
-      <formula>$AE$5</formula>
+    <cfRule type="cellIs" dxfId="109" priority="19" operator="equal">
+      <formula>$AG$6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6:AC6">
-    <cfRule type="cellIs" dxfId="68" priority="5" operator="equal">
-      <formula>$AG$6</formula>
+  <conditionalFormatting sqref="B7:AC7">
+    <cfRule type="cellIs" dxfId="108" priority="18" operator="equal">
+      <formula>$AE$7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="6" operator="equal">
-      <formula>$AF$6</formula>
+    <cfRule type="cellIs" dxfId="107" priority="17" operator="equal">
+      <formula>$AF$7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="7" operator="equal">
-      <formula>$AE$6</formula>
+    <cfRule type="cellIs" dxfId="106" priority="16" operator="equal">
+      <formula>$AG$7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7:AC7">
-    <cfRule type="cellIs" dxfId="65" priority="1" operator="equal">
-      <formula>$AG$7</formula>
+  <conditionalFormatting sqref="A11:AC11">
+    <cfRule type="cellIs" dxfId="105" priority="15" operator="equal">
+      <formula>$AE$11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="2" operator="equal">
-      <formula>$AF$7</formula>
+    <cfRule type="cellIs" dxfId="104" priority="14" operator="equal">
+      <formula>$AF$11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="3" operator="equal">
-      <formula>$AE$7</formula>
+    <cfRule type="cellIs" dxfId="103" priority="13" operator="equal">
+      <formula>$AG$11</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6:AC6">
-    <cfRule type="cellIs" dxfId="62" priority="4" operator="equal">
-      <formula>$AE$6</formula>
+  <conditionalFormatting sqref="A12:AC12">
+    <cfRule type="cellIs" dxfId="102" priority="12" operator="equal">
+      <formula>$AE$12</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="101" priority="11" operator="equal">
+      <formula>$AF$12</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="10" operator="equal">
+      <formula>$AG$12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:AC15">
+    <cfRule type="cellIs" dxfId="62" priority="9" operator="equal">
+      <formula>$AE$13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="63" priority="8" operator="equal">
+      <formula>$AF$13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="7" operator="equal">
+      <formula>$AG$13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="65" priority="6" operator="equal">
+      <formula>$AE$14</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="5" operator="equal">
+      <formula>$AF$14</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="67" priority="4" operator="equal">
+      <formula>$AG$14</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="3" operator="equal">
+      <formula>$AE$15</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="69" priority="2" operator="equal">
+      <formula>$AF$15</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="1" operator="equal">
+      <formula>$AG$15</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4615,26 +10260,26 @@
   <dimension ref="A1:W7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:S5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="P1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="U1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -4999,35 +10644,35 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:S3">
-    <cfRule type="cellIs" dxfId="16" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="619" priority="9" operator="equal">
       <formula>$U$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="618" priority="8" operator="equal">
       <formula>$V$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="617" priority="7" operator="equal">
       <formula>$W$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:S4">
-    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="616" priority="6" operator="equal">
       <formula>$U$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="615" priority="5" operator="equal">
       <formula>$V$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="614" priority="4" operator="equal">
       <formula>$W$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:S5">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="613" priority="3" operator="equal">
       <formula>$U$5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="612" priority="2" operator="equal">
       <formula>$V$5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="611" priority="1" operator="equal">
       <formula>$W$5</formula>
     </cfRule>
   </conditionalFormatting>
